--- a/template/메인AB.xlsx
+++ b/template/메인AB.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="12170"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="12170" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Digit Span (A)" sheetId="1" r:id="rId1"/>
@@ -1853,7 +1853,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="145">
   <si>
     <t>ID</t>
   </si>
@@ -2764,7 +2764,7 @@
   </sheetPr>
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
@@ -4585,8 +4585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -4662,9 +4662,7 @@
       <c r="A5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>29</v>
-      </c>
+      <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
@@ -4675,9 +4673,7 @@
       <c r="A6" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>30</v>
-      </c>
+      <c r="B6" s="6"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
@@ -4688,9 +4684,7 @@
       <c r="A7" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
@@ -4701,9 +4695,7 @@
       <c r="A8" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
@@ -4714,9 +4706,7 @@
       <c r="A9" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>10</v>
-      </c>
+      <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
@@ -4727,9 +4717,7 @@
       <c r="A10" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>12</v>
-      </c>
+      <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
@@ -4740,9 +4728,7 @@
       <c r="A11" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="B11" s="6"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
@@ -4753,9 +4739,7 @@
       <c r="A12" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>33</v>
-      </c>
+      <c r="B12" s="6"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
@@ -4766,9 +4750,7 @@
       <c r="A13" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>34</v>
-      </c>
+      <c r="B13" s="6"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
@@ -4779,9 +4761,7 @@
       <c r="A14" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>35</v>
-      </c>
+      <c r="B14" s="6"/>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
@@ -4792,9 +4772,7 @@
       <c r="A15" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>36</v>
-      </c>
+      <c r="B15" s="6"/>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
@@ -4805,9 +4783,7 @@
       <c r="A16" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>37</v>
-      </c>
+      <c r="B16" s="6"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
@@ -4818,9 +4794,7 @@
       <c r="A17" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>38</v>
-      </c>
+      <c r="B17" s="6"/>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
@@ -4831,9 +4805,7 @@
       <c r="A18" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>39</v>
-      </c>
+      <c r="B18" s="6"/>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
@@ -4844,9 +4816,7 @@
       <c r="A19" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>40</v>
-      </c>
+      <c r="B19" s="6"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
@@ -4857,9 +4827,7 @@
       <c r="A20" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>41</v>
-      </c>
+      <c r="B20" s="6"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>

--- a/template/메인AB.xlsx
+++ b/template/메인AB.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="12170" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="12165" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Digit Span (A)" sheetId="1" r:id="rId1"/>
@@ -1853,7 +1853,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="148">
   <si>
     <t>ID</t>
   </si>
@@ -2336,6 +2336,18 @@
   </si>
   <si>
     <t>First name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stimulus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stimulus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stimulus</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2768,7 +2780,7 @@
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.25" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23" style="1" customWidth="1"/>
@@ -2777,7 +2789,7 @@
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>97</v>
       </c>
@@ -2797,7 +2809,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -2811,7 +2823,7 @@
       </c>
       <c r="F2" s="7"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>101</v>
       </c>
@@ -2828,7 +2840,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>106</v>
       </c>
@@ -2839,7 +2851,7 @@
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>108</v>
       </c>
@@ -2850,7 +2862,7 @@
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>110</v>
       </c>
@@ -2861,7 +2873,7 @@
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>112</v>
       </c>
@@ -2872,7 +2884,7 @@
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>114</v>
       </c>
@@ -2883,7 +2895,7 @@
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
         <v>116</v>
       </c>
@@ -2894,7 +2906,7 @@
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
         <v>118</v>
       </c>
@@ -2905,7 +2917,7 @@
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
         <v>120</v>
       </c>
@@ -2916,7 +2928,7 @@
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
         <v>122</v>
       </c>
@@ -2927,7 +2939,7 @@
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
         <v>124</v>
       </c>
@@ -2938,7 +2950,7 @@
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
         <v>126</v>
       </c>
@@ -2949,7 +2961,7 @@
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
         <v>128</v>
       </c>
@@ -2960,7 +2972,7 @@
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
         <v>130</v>
       </c>
@@ -2971,7 +2983,7 @@
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
         <v>132</v>
       </c>
@@ -2982,7 +2994,7 @@
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
         <v>134</v>
       </c>
@@ -2993,7 +3005,7 @@
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
         <v>136</v>
       </c>
@@ -3004,7 +3016,7 @@
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
     </row>
-    <row r="21" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="21" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -3021,17 +3033,17 @@
       <selection activeCell="C1" sqref="B1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.25" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.75" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="13.25" style="5" customWidth="1"/>
-    <col min="6" max="6" width="8.58203125" style="5" customWidth="1"/>
-    <col min="7" max="16384" width="8.58203125" style="5"/>
+    <col min="6" max="6" width="8.625" style="5" customWidth="1"/>
+    <col min="7" max="16384" width="8.625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -3052,7 +3064,7 @@
       </c>
       <c r="G1" s="10"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -3067,7 +3079,7 @@
       <c r="F2" s="7"/>
       <c r="G2" s="10"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
@@ -3090,7 +3102,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>5</v>
       </c>
@@ -3103,7 +3115,7 @@
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>6</v>
       </c>
@@ -3116,7 +3128,7 @@
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>7</v>
       </c>
@@ -3129,7 +3141,7 @@
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>8</v>
       </c>
@@ -3142,7 +3154,7 @@
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>9</v>
       </c>
@@ -3155,7 +3167,7 @@
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
         <v>11</v>
       </c>
@@ -3168,7 +3180,7 @@
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
         <v>13</v>
       </c>
@@ -3181,7 +3193,7 @@
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
         <v>14</v>
       </c>
@@ -3194,7 +3206,7 @@
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
         <v>16</v>
       </c>
@@ -3207,7 +3219,7 @@
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
         <v>17</v>
       </c>
@@ -3220,7 +3232,7 @@
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
         <v>18</v>
       </c>
@@ -3233,7 +3245,7 @@
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
         <v>19</v>
       </c>
@@ -3246,7 +3258,7 @@
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
         <v>20</v>
       </c>
@@ -3259,7 +3271,7 @@
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
         <v>21</v>
       </c>
@@ -3272,7 +3284,7 @@
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
         <v>22</v>
       </c>
@@ -3285,7 +3297,7 @@
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
         <v>23</v>
       </c>
@@ -3317,16 +3329,16 @@
       <selection activeCell="C1" sqref="B1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.58203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.58203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -3355,7 +3367,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="8"/>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
@@ -3372,7 +3384,7 @@
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
@@ -3389,7 +3401,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>1</v>
       </c>
@@ -3398,7 +3410,7 @@
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>2</v>
       </c>
@@ -3407,7 +3419,7 @@
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>3</v>
       </c>
@@ -3416,7 +3428,7 @@
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>4</v>
       </c>
@@ -3425,7 +3437,7 @@
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>5</v>
       </c>
@@ -3434,7 +3446,7 @@
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>6</v>
       </c>
@@ -3443,7 +3455,7 @@
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>7</v>
       </c>
@@ -3452,7 +3464,7 @@
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>8</v>
       </c>
@@ -3461,7 +3473,7 @@
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>9</v>
       </c>
@@ -3470,7 +3482,7 @@
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <v>10</v>
       </c>
@@ -3479,7 +3491,7 @@
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
         <v>11</v>
       </c>
@@ -3488,7 +3500,7 @@
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <v>12</v>
       </c>
@@ -3497,7 +3509,7 @@
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <v>13</v>
       </c>
@@ -3506,7 +3518,7 @@
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <v>14</v>
       </c>
@@ -3515,7 +3527,7 @@
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
         <v>15</v>
       </c>
@@ -3524,7 +3536,7 @@
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
         <v>16</v>
       </c>
@@ -3533,7 +3545,7 @@
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <v>17</v>
       </c>
@@ -3542,7 +3554,7 @@
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
         <v>18</v>
       </c>
@@ -3551,7 +3563,7 @@
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
         <v>19</v>
       </c>
@@ -3560,7 +3572,7 @@
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="6">
         <v>20</v>
       </c>
@@ -3569,7 +3581,7 @@
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="6">
         <v>21</v>
       </c>
@@ -3578,7 +3590,7 @@
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="6">
         <v>22</v>
       </c>
@@ -3587,7 +3599,7 @@
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="6">
         <v>23</v>
       </c>
@@ -3596,7 +3608,7 @@
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="6">
         <v>24</v>
       </c>
@@ -3605,7 +3617,7 @@
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="6">
         <v>25</v>
       </c>
@@ -3614,7 +3626,7 @@
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="6">
         <v>26</v>
       </c>
@@ -3623,7 +3635,7 @@
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="6">
         <v>27</v>
       </c>
@@ -3632,7 +3644,7 @@
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="6">
         <v>28</v>
       </c>
@@ -3641,7 +3653,7 @@
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="6">
         <v>29</v>
       </c>
@@ -3650,7 +3662,7 @@
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="6">
         <v>30</v>
       </c>
@@ -3659,7 +3671,7 @@
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="6">
         <v>31</v>
       </c>
@@ -3668,7 +3680,7 @@
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="6">
         <v>32</v>
       </c>
@@ -3677,7 +3689,7 @@
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="6">
         <v>33</v>
       </c>
@@ -3686,7 +3698,7 @@
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="6">
         <v>34</v>
       </c>
@@ -3695,7 +3707,7 @@
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="6">
         <v>35</v>
       </c>
@@ -3704,7 +3716,7 @@
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="6">
         <v>36</v>
       </c>
@@ -3713,7 +3725,7 @@
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="6">
         <v>37</v>
       </c>
@@ -3722,7 +3734,7 @@
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="6">
         <v>38</v>
       </c>
@@ -3731,7 +3743,7 @@
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="6">
         <v>39</v>
       </c>
@@ -3740,7 +3752,7 @@
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="6">
         <v>40</v>
       </c>
@@ -3749,7 +3761,7 @@
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="6">
         <v>41</v>
       </c>
@@ -3758,7 +3770,7 @@
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="6">
         <v>42</v>
       </c>
@@ -3767,7 +3779,7 @@
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="6">
         <v>43</v>
       </c>
@@ -3776,7 +3788,7 @@
       <c r="D47" s="6"/>
       <c r="E47" s="6"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="6">
         <v>44</v>
       </c>
@@ -3785,7 +3797,7 @@
       <c r="D48" s="6"/>
       <c r="E48" s="6"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="6">
         <v>45</v>
       </c>
@@ -3794,7 +3806,7 @@
       <c r="D49" s="6"/>
       <c r="E49" s="6"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="6">
         <v>46</v>
       </c>
@@ -3803,7 +3815,7 @@
       <c r="D50" s="6"/>
       <c r="E50" s="6"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="6">
         <v>47</v>
       </c>
@@ -3812,7 +3824,7 @@
       <c r="D51" s="6"/>
       <c r="E51" s="6"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="6">
         <v>48</v>
       </c>
@@ -3821,7 +3833,7 @@
       <c r="D52" s="6"/>
       <c r="E52" s="6"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="6">
         <v>49</v>
       </c>
@@ -3830,7 +3842,7 @@
       <c r="D53" s="6"/>
       <c r="E53" s="6"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="6">
         <v>50</v>
       </c>
@@ -3839,7 +3851,7 @@
       <c r="D54" s="6"/>
       <c r="E54" s="6"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="6">
         <v>51</v>
       </c>
@@ -3848,7 +3860,7 @@
       <c r="D55" s="6"/>
       <c r="E55" s="6"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="6">
         <v>52</v>
       </c>
@@ -3857,7 +3869,7 @@
       <c r="D56" s="6"/>
       <c r="E56" s="6"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="6">
         <v>53</v>
       </c>
@@ -3866,7 +3878,7 @@
       <c r="D57" s="6"/>
       <c r="E57" s="6"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="6">
         <v>54</v>
       </c>
@@ -3875,7 +3887,7 @@
       <c r="D58" s="6"/>
       <c r="E58" s="6"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="6">
         <v>55</v>
       </c>
@@ -3884,7 +3896,7 @@
       <c r="D59" s="6"/>
       <c r="E59" s="6"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="6">
         <v>56</v>
       </c>
@@ -3893,7 +3905,7 @@
       <c r="D60" s="6"/>
       <c r="E60" s="6"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="6">
         <v>57</v>
       </c>
@@ -3902,7 +3914,7 @@
       <c r="D61" s="6"/>
       <c r="E61" s="6"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="6">
         <v>58</v>
       </c>
@@ -3911,7 +3923,7 @@
       <c r="D62" s="6"/>
       <c r="E62" s="6"/>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="6">
         <v>59</v>
       </c>
@@ -3920,7 +3932,7 @@
       <c r="D63" s="6"/>
       <c r="E63" s="6"/>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="6">
         <v>60</v>
       </c>
@@ -3945,27 +3957,27 @@
   <dimension ref="A1:P40"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.25" style="9" customWidth="1"/>
     <col min="2" max="2" width="6.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.58203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.375" style="9" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.75" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.58203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.375" style="9" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.75" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.58203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.58203125" style="9" customWidth="1"/>
+    <col min="10" max="10" width="13.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.625" style="9" customWidth="1"/>
     <col min="12" max="12" width="4.75" style="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="12.08203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="12.125" style="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4012,30 +4024,30 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="2">
-        <f>SUM(D5:D16)</f>
+        <f>SUM(E5:E16)</f>
         <v>0</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2">
-        <f>SUM(D17:D28)</f>
+        <f>SUM(E17:E28)</f>
         <v>0</v>
       </c>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2">
-        <f>SUM(D29:D40)</f>
+        <f>SUM(E29:E40)</f>
         <v>0</v>
       </c>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2">
-        <f>SUM(D5:D40)</f>
+        <f>SUM(E5:E40)</f>
         <v>0</v>
       </c>
       <c r="O2" s="2" t="str">
@@ -4047,307 +4059,383 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="E4" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="F4" s="6" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="O4" s="9"/>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B5" s="6" t="s">
         <v>60</v>
       </c>
       <c r="C5" s="6"/>
-      <c r="D5" s="4"/>
+      <c r="D5" s="6"/>
       <c r="E5" s="4"/>
-    </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="F5" s="4"/>
+      <c r="O5" s="9"/>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B6" s="6" t="s">
         <v>61</v>
       </c>
       <c r="C6" s="6"/>
-      <c r="D6" s="4"/>
+      <c r="D6" s="6"/>
       <c r="E6" s="4"/>
-    </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="F6" s="4"/>
+      <c r="O6" s="9"/>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B7" s="6" t="s">
         <v>62</v>
       </c>
       <c r="C7" s="6"/>
-      <c r="D7" s="4"/>
+      <c r="D7" s="6"/>
       <c r="E7" s="4"/>
-    </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="F7" s="4"/>
+      <c r="O7" s="9"/>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B8" s="6" t="s">
         <v>63</v>
       </c>
       <c r="C8" s="6"/>
-      <c r="D8" s="4"/>
+      <c r="D8" s="6"/>
       <c r="E8" s="4"/>
-    </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="F8" s="4"/>
+      <c r="O8" s="9"/>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B9" s="6" t="s">
         <v>64</v>
       </c>
       <c r="C9" s="6"/>
-      <c r="D9" s="4"/>
+      <c r="D9" s="6"/>
       <c r="E9" s="4"/>
-    </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="F9" s="4"/>
+      <c r="O9" s="9"/>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B10" s="6" t="s">
         <v>65</v>
       </c>
       <c r="C10" s="6"/>
-      <c r="D10" s="4"/>
+      <c r="D10" s="6"/>
       <c r="E10" s="4"/>
-    </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="F10" s="4"/>
+      <c r="O10" s="9"/>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B11" s="6" t="s">
         <v>66</v>
       </c>
       <c r="C11" s="6"/>
-      <c r="D11" s="4"/>
+      <c r="D11" s="6"/>
       <c r="E11" s="4"/>
-    </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="F11" s="4"/>
+      <c r="O11" s="9"/>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B12" s="6" t="s">
         <v>67</v>
       </c>
       <c r="C12" s="6"/>
-      <c r="D12" s="4"/>
+      <c r="D12" s="6"/>
       <c r="E12" s="4"/>
-    </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="F12" s="4"/>
+      <c r="O12" s="9"/>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B13" s="6" t="s">
         <v>68</v>
       </c>
       <c r="C13" s="6"/>
-      <c r="D13" s="4"/>
+      <c r="D13" s="6"/>
       <c r="E13" s="4"/>
-    </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="F13" s="4"/>
+      <c r="O13" s="9"/>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B14" s="6" t="s">
         <v>69</v>
       </c>
       <c r="C14" s="6"/>
-      <c r="D14" s="4"/>
+      <c r="D14" s="6"/>
       <c r="E14" s="4"/>
-    </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="F14" s="4"/>
+      <c r="O14" s="9"/>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B15" s="6" t="s">
         <v>70</v>
       </c>
       <c r="C15" s="6"/>
-      <c r="D15" s="4"/>
+      <c r="D15" s="6"/>
       <c r="E15" s="4"/>
-    </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="F15" s="4"/>
+      <c r="O15" s="9"/>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B16" s="6" t="s">
         <v>71</v>
       </c>
       <c r="C16" s="6"/>
-      <c r="D16" s="4"/>
+      <c r="D16" s="6"/>
       <c r="E16" s="4"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="F16" s="4"/>
+      <c r="O16" s="9"/>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B17" s="6" t="s">
         <v>72</v>
       </c>
       <c r="C17" s="6"/>
-      <c r="D17" s="4"/>
+      <c r="D17" s="6"/>
       <c r="E17" s="4"/>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="F17" s="4"/>
+      <c r="O17" s="9"/>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B18" s="6" t="s">
         <v>73</v>
       </c>
       <c r="C18" s="6"/>
-      <c r="D18" s="4"/>
+      <c r="D18" s="6"/>
       <c r="E18" s="4"/>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="F18" s="4"/>
+      <c r="O18" s="9"/>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B19" s="6" t="s">
         <v>74</v>
       </c>
       <c r="C19" s="6"/>
-      <c r="D19" s="4"/>
+      <c r="D19" s="6"/>
       <c r="E19" s="4"/>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="F19" s="4"/>
+      <c r="O19" s="9"/>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B20" s="6" t="s">
         <v>75</v>
       </c>
       <c r="C20" s="6"/>
-      <c r="D20" s="4"/>
+      <c r="D20" s="6"/>
       <c r="E20" s="4"/>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="F20" s="4"/>
+      <c r="O20" s="9"/>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B21" s="6" t="s">
         <v>76</v>
       </c>
       <c r="C21" s="6"/>
-      <c r="D21" s="4"/>
+      <c r="D21" s="6"/>
       <c r="E21" s="4"/>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="F21" s="4"/>
+      <c r="O21" s="9"/>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B22" s="6" t="s">
         <v>77</v>
       </c>
       <c r="C22" s="6"/>
-      <c r="D22" s="4"/>
+      <c r="D22" s="6"/>
       <c r="E22" s="4"/>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="F22" s="4"/>
+      <c r="O22" s="9"/>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B23" s="6" t="s">
         <v>78</v>
       </c>
       <c r="C23" s="6"/>
-      <c r="D23" s="4"/>
+      <c r="D23" s="6"/>
       <c r="E23" s="4"/>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="F23" s="4"/>
+      <c r="O23" s="9"/>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B24" s="6" t="s">
         <v>79</v>
       </c>
       <c r="C24" s="6"/>
-      <c r="D24" s="4"/>
+      <c r="D24" s="6"/>
       <c r="E24" s="4"/>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="F24" s="4"/>
+      <c r="O24" s="9"/>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B25" s="6" t="s">
         <v>80</v>
       </c>
       <c r="C25" s="6"/>
-      <c r="D25" s="4"/>
+      <c r="D25" s="6"/>
       <c r="E25" s="4"/>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="F25" s="4"/>
+      <c r="O25" s="9"/>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B26" s="6" t="s">
         <v>81</v>
       </c>
       <c r="C26" s="6"/>
-      <c r="D26" s="4"/>
+      <c r="D26" s="6"/>
       <c r="E26" s="4"/>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="F26" s="4"/>
+      <c r="O26" s="9"/>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B27" s="6" t="s">
         <v>82</v>
       </c>
       <c r="C27" s="6"/>
-      <c r="D27" s="4"/>
+      <c r="D27" s="6"/>
       <c r="E27" s="4"/>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="F27" s="4"/>
+      <c r="O27" s="9"/>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B28" s="6" t="s">
         <v>83</v>
       </c>
       <c r="C28" s="6"/>
-      <c r="D28" s="4"/>
+      <c r="D28" s="6"/>
       <c r="E28" s="4"/>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="F28" s="4"/>
+      <c r="O28" s="9"/>
+    </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B29" s="6" t="s">
         <v>84</v>
       </c>
       <c r="C29" s="6"/>
-      <c r="D29" s="4"/>
+      <c r="D29" s="6"/>
       <c r="E29" s="4"/>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="F29" s="4"/>
+      <c r="O29" s="9"/>
+    </row>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B30" s="6" t="s">
         <v>85</v>
       </c>
       <c r="C30" s="6"/>
-      <c r="D30" s="4"/>
+      <c r="D30" s="6"/>
       <c r="E30" s="4"/>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="F30" s="4"/>
+      <c r="O30" s="9"/>
+    </row>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B31" s="6" t="s">
         <v>86</v>
       </c>
       <c r="C31" s="6"/>
-      <c r="D31" s="4"/>
+      <c r="D31" s="6"/>
       <c r="E31" s="4"/>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="F31" s="4"/>
+      <c r="O31" s="9"/>
+    </row>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B32" s="6" t="s">
         <v>87</v>
       </c>
       <c r="C32" s="6"/>
-      <c r="D32" s="4"/>
+      <c r="D32" s="6"/>
       <c r="E32" s="4"/>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="F32" s="4"/>
+      <c r="O32" s="9"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B33" s="6" t="s">
         <v>88</v>
       </c>
       <c r="C33" s="6"/>
-      <c r="D33" s="4"/>
+      <c r="D33" s="6"/>
       <c r="E33" s="4"/>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="F33" s="4"/>
+      <c r="O33" s="9"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B34" s="6" t="s">
         <v>89</v>
       </c>
       <c r="C34" s="6"/>
-      <c r="D34" s="4"/>
+      <c r="D34" s="6"/>
       <c r="E34" s="4"/>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="F34" s="4"/>
+      <c r="O34" s="9"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B35" s="6" t="s">
         <v>90</v>
       </c>
       <c r="C35" s="6"/>
-      <c r="D35" s="4"/>
+      <c r="D35" s="6"/>
       <c r="E35" s="4"/>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="F35" s="4"/>
+      <c r="O35" s="9"/>
+    </row>
+    <row r="36" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B36" s="6" t="s">
         <v>91</v>
       </c>
       <c r="C36" s="6"/>
-      <c r="D36" s="4"/>
+      <c r="D36" s="6"/>
       <c r="E36" s="4"/>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="F36" s="4"/>
+      <c r="O36" s="9"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B37" s="6" t="s">
         <v>92</v>
       </c>
       <c r="C37" s="6"/>
-      <c r="D37" s="4"/>
+      <c r="D37" s="6"/>
       <c r="E37" s="4"/>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="F37" s="4"/>
+      <c r="O37" s="9"/>
+    </row>
+    <row r="38" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B38" s="6" t="s">
         <v>93</v>
       </c>
       <c r="C38" s="6"/>
-      <c r="D38" s="4"/>
+      <c r="D38" s="6"/>
       <c r="E38" s="4"/>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="F38" s="4"/>
+      <c r="O38" s="9"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B39" s="6" t="s">
         <v>94</v>
       </c>
       <c r="C39" s="6"/>
-      <c r="D39" s="4"/>
+      <c r="D39" s="6"/>
       <c r="E39" s="4"/>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="F39" s="4"/>
+      <c r="O39" s="9"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B40" s="6" t="s">
         <v>95</v>
       </c>
       <c r="C40" s="6"/>
-      <c r="D40" s="4"/>
+      <c r="D40" s="6"/>
       <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="O40" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -4368,7 +4456,7 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.25" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23" style="1" customWidth="1"/>
@@ -4377,7 +4465,7 @@
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>97</v>
       </c>
@@ -4397,7 +4485,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -4411,7 +4499,7 @@
       </c>
       <c r="F2" s="7"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>101</v>
       </c>
@@ -4428,7 +4516,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>106</v>
       </c>
@@ -4437,7 +4525,7 @@
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>108</v>
       </c>
@@ -4446,7 +4534,7 @@
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>110</v>
       </c>
@@ -4455,7 +4543,7 @@
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>112</v>
       </c>
@@ -4464,7 +4552,7 @@
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>114</v>
       </c>
@@ -4473,7 +4561,7 @@
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
         <v>116</v>
       </c>
@@ -4482,7 +4570,7 @@
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
         <v>118</v>
       </c>
@@ -4491,7 +4579,7 @@
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
         <v>120</v>
       </c>
@@ -4500,7 +4588,7 @@
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
         <v>122</v>
       </c>
@@ -4509,7 +4597,7 @@
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
         <v>124</v>
       </c>
@@ -4518,7 +4606,7 @@
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
         <v>126</v>
       </c>
@@ -4527,7 +4615,7 @@
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
         <v>128</v>
       </c>
@@ -4536,7 +4624,7 @@
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
         <v>130</v>
       </c>
@@ -4545,7 +4633,7 @@
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
         <v>132</v>
       </c>
@@ -4554,7 +4642,7 @@
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
         <v>134</v>
       </c>
@@ -4563,7 +4651,7 @@
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
         <v>136</v>
       </c>
@@ -4572,7 +4660,7 @@
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
     </row>
-    <row r="21" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="21" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -4585,21 +4673,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H17" sqref="G8:H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.25" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.75" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="13.25" style="5" customWidth="1"/>
-    <col min="6" max="6" width="8.58203125" style="5" customWidth="1"/>
-    <col min="7" max="16384" width="8.58203125" style="5"/>
+    <col min="6" max="6" width="8.625" style="5" customWidth="1"/>
+    <col min="7" max="16384" width="8.625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -4620,7 +4708,7 @@
       </c>
       <c r="G1" s="10"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -4635,7 +4723,7 @@
       <c r="F2" s="7"/>
       <c r="G2" s="10"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
@@ -4658,7 +4746,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>5</v>
       </c>
@@ -4669,7 +4757,7 @@
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>6</v>
       </c>
@@ -4680,7 +4768,7 @@
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>7</v>
       </c>
@@ -4691,7 +4779,7 @@
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>8</v>
       </c>
@@ -4702,7 +4790,7 @@
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>9</v>
       </c>
@@ -4713,7 +4801,7 @@
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
         <v>11</v>
       </c>
@@ -4724,7 +4812,7 @@
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
         <v>13</v>
       </c>
@@ -4735,7 +4823,7 @@
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
         <v>14</v>
       </c>
@@ -4746,7 +4834,7 @@
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
         <v>16</v>
       </c>
@@ -4757,7 +4845,7 @@
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
         <v>17</v>
       </c>
@@ -4768,7 +4856,7 @@
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
         <v>18</v>
       </c>
@@ -4779,7 +4867,7 @@
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
         <v>19</v>
       </c>
@@ -4790,7 +4878,7 @@
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
         <v>20</v>
       </c>
@@ -4801,7 +4889,7 @@
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
         <v>21</v>
       </c>
@@ -4812,7 +4900,7 @@
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
         <v>22</v>
       </c>
@@ -4823,7 +4911,7 @@
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
         <v>23</v>
       </c>
@@ -4850,20 +4938,20 @@
   <dimension ref="A1:I64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C1"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.58203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.58203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.6640625" style="5"/>
+    <col min="6" max="16384" width="8.625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -4892,7 +4980,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="8"/>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
@@ -4909,12 +4997,12 @@
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>3</v>
+        <v>145</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>26</v>
@@ -4926,7 +5014,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>1</v>
       </c>
@@ -4935,7 +5023,7 @@
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>2</v>
       </c>
@@ -4944,7 +5032,7 @@
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>3</v>
       </c>
@@ -4953,7 +5041,7 @@
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>4</v>
       </c>
@@ -4962,7 +5050,7 @@
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>5</v>
       </c>
@@ -4971,7 +5059,7 @@
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>6</v>
       </c>
@@ -4980,7 +5068,7 @@
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>7</v>
       </c>
@@ -4989,7 +5077,7 @@
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>8</v>
       </c>
@@ -4998,7 +5086,7 @@
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>9</v>
       </c>
@@ -5007,7 +5095,7 @@
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <v>10</v>
       </c>
@@ -5016,7 +5104,7 @@
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
         <v>11</v>
       </c>
@@ -5025,7 +5113,7 @@
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <v>12</v>
       </c>
@@ -5034,7 +5122,7 @@
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <v>13</v>
       </c>
@@ -5043,7 +5131,7 @@
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <v>14</v>
       </c>
@@ -5052,7 +5140,7 @@
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
         <v>15</v>
       </c>
@@ -5061,7 +5149,7 @@
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
         <v>16</v>
       </c>
@@ -5070,7 +5158,7 @@
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <v>17</v>
       </c>
@@ -5079,7 +5167,7 @@
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
         <v>18</v>
       </c>
@@ -5088,7 +5176,7 @@
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
         <v>19</v>
       </c>
@@ -5097,7 +5185,7 @@
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="6">
         <v>20</v>
       </c>
@@ -5106,7 +5194,7 @@
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="6">
         <v>21</v>
       </c>
@@ -5115,7 +5203,7 @@
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="6">
         <v>22</v>
       </c>
@@ -5124,7 +5212,7 @@
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="6">
         <v>23</v>
       </c>
@@ -5133,7 +5221,7 @@
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="6">
         <v>24</v>
       </c>
@@ -5142,7 +5230,7 @@
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="6">
         <v>25</v>
       </c>
@@ -5151,7 +5239,7 @@
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="6">
         <v>26</v>
       </c>
@@ -5160,7 +5248,7 @@
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="6">
         <v>27</v>
       </c>
@@ -5169,7 +5257,7 @@
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="6">
         <v>28</v>
       </c>
@@ -5178,7 +5266,7 @@
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="6">
         <v>29</v>
       </c>
@@ -5187,7 +5275,7 @@
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="6">
         <v>30</v>
       </c>
@@ -5196,7 +5284,7 @@
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="6">
         <v>31</v>
       </c>
@@ -5205,7 +5293,7 @@
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="6">
         <v>32</v>
       </c>
@@ -5214,7 +5302,7 @@
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="6">
         <v>33</v>
       </c>
@@ -5223,7 +5311,7 @@
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="6">
         <v>34</v>
       </c>
@@ -5232,7 +5320,7 @@
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="6">
         <v>35</v>
       </c>
@@ -5241,7 +5329,7 @@
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="6">
         <v>36</v>
       </c>
@@ -5250,7 +5338,7 @@
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="6">
         <v>37</v>
       </c>
@@ -5259,7 +5347,7 @@
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="6">
         <v>38</v>
       </c>
@@ -5268,7 +5356,7 @@
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="6">
         <v>39</v>
       </c>
@@ -5277,7 +5365,7 @@
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="6">
         <v>40</v>
       </c>
@@ -5286,7 +5374,7 @@
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="6">
         <v>41</v>
       </c>
@@ -5295,7 +5383,7 @@
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="6">
         <v>42</v>
       </c>
@@ -5304,7 +5392,7 @@
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="6">
         <v>43</v>
       </c>
@@ -5313,7 +5401,7 @@
       <c r="D47" s="6"/>
       <c r="E47" s="6"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="6">
         <v>44</v>
       </c>
@@ -5322,7 +5410,7 @@
       <c r="D48" s="6"/>
       <c r="E48" s="6"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="6">
         <v>45</v>
       </c>
@@ -5331,7 +5419,7 @@
       <c r="D49" s="6"/>
       <c r="E49" s="6"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="6">
         <v>46</v>
       </c>
@@ -5340,7 +5428,7 @@
       <c r="D50" s="6"/>
       <c r="E50" s="6"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="6">
         <v>47</v>
       </c>
@@ -5349,7 +5437,7 @@
       <c r="D51" s="6"/>
       <c r="E51" s="6"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="6">
         <v>48</v>
       </c>
@@ -5358,7 +5446,7 @@
       <c r="D52" s="6"/>
       <c r="E52" s="6"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="6">
         <v>49</v>
       </c>
@@ -5367,7 +5455,7 @@
       <c r="D53" s="6"/>
       <c r="E53" s="6"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="6">
         <v>50</v>
       </c>
@@ -5376,7 +5464,7 @@
       <c r="D54" s="6"/>
       <c r="E54" s="6"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="6">
         <v>51</v>
       </c>
@@ -5385,7 +5473,7 @@
       <c r="D55" s="6"/>
       <c r="E55" s="6"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="6">
         <v>52</v>
       </c>
@@ -5394,7 +5482,7 @@
       <c r="D56" s="6"/>
       <c r="E56" s="6"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="6">
         <v>53</v>
       </c>
@@ -5403,7 +5491,7 @@
       <c r="D57" s="6"/>
       <c r="E57" s="6"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="6">
         <v>54</v>
       </c>
@@ -5412,7 +5500,7 @@
       <c r="D58" s="6"/>
       <c r="E58" s="6"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="6">
         <v>55</v>
       </c>
@@ -5421,7 +5509,7 @@
       <c r="D59" s="6"/>
       <c r="E59" s="6"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="6">
         <v>56</v>
       </c>
@@ -5430,7 +5518,7 @@
       <c r="D60" s="6"/>
       <c r="E60" s="6"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="6">
         <v>57</v>
       </c>
@@ -5439,7 +5527,7 @@
       <c r="D61" s="6"/>
       <c r="E61" s="6"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="6">
         <v>58</v>
       </c>
@@ -5448,7 +5536,7 @@
       <c r="D62" s="6"/>
       <c r="E62" s="6"/>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="6">
         <v>59</v>
       </c>
@@ -5457,7 +5545,7 @@
       <c r="D63" s="6"/>
       <c r="E63" s="6"/>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="6">
         <v>60</v>
       </c>
@@ -5481,29 +5569,29 @@
   </sheetPr>
   <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.25" style="9" customWidth="1"/>
     <col min="2" max="2" width="6.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.58203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.375" style="9" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.75" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.58203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.375" style="9" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.75" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.58203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.58203125" style="9" customWidth="1"/>
+    <col min="10" max="10" width="13.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.625" style="9" customWidth="1"/>
     <col min="12" max="12" width="4.75" style="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="12.08203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.6640625" style="5"/>
+    <col min="13" max="14" width="12.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5550,30 +5638,30 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="2">
-        <f>SUM(D5:D16)</f>
+        <f>SUM(E5:E16)</f>
         <v>0</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2">
-        <f>SUM(D17:D28)</f>
+        <f>SUM(E17:E28)</f>
         <v>0</v>
       </c>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2">
-        <f>SUM(D29:D40)</f>
+        <f>SUM(E29:E40)</f>
         <v>0</v>
       </c>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2">
-        <f>SUM(D5:D40)</f>
+        <f>SUM(E5:E40)</f>
         <v>0</v>
       </c>
       <c r="O2" s="2" t="str">
@@ -5585,307 +5673,383 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="E4" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="F4" s="6" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="O4" s="9"/>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B5" s="6" t="s">
         <v>60</v>
       </c>
       <c r="C5" s="6"/>
-      <c r="D5" s="4"/>
+      <c r="D5" s="6"/>
       <c r="E5" s="4"/>
-    </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="F5" s="4"/>
+      <c r="O5" s="9"/>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B6" s="6" t="s">
         <v>61</v>
       </c>
       <c r="C6" s="6"/>
-      <c r="D6" s="4"/>
+      <c r="D6" s="6"/>
       <c r="E6" s="4"/>
-    </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="F6" s="4"/>
+      <c r="O6" s="9"/>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B7" s="6" t="s">
         <v>62</v>
       </c>
       <c r="C7" s="6"/>
-      <c r="D7" s="4"/>
+      <c r="D7" s="6"/>
       <c r="E7" s="4"/>
-    </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="F7" s="4"/>
+      <c r="O7" s="9"/>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B8" s="6" t="s">
         <v>63</v>
       </c>
       <c r="C8" s="6"/>
-      <c r="D8" s="4"/>
+      <c r="D8" s="6"/>
       <c r="E8" s="4"/>
-    </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="F8" s="4"/>
+      <c r="O8" s="9"/>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B9" s="6" t="s">
         <v>64</v>
       </c>
       <c r="C9" s="6"/>
-      <c r="D9" s="4"/>
+      <c r="D9" s="6"/>
       <c r="E9" s="4"/>
-    </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="F9" s="4"/>
+      <c r="O9" s="9"/>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B10" s="6" t="s">
         <v>65</v>
       </c>
       <c r="C10" s="6"/>
-      <c r="D10" s="4"/>
+      <c r="D10" s="6"/>
       <c r="E10" s="4"/>
-    </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="F10" s="4"/>
+      <c r="O10" s="9"/>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B11" s="6" t="s">
         <v>66</v>
       </c>
       <c r="C11" s="6"/>
-      <c r="D11" s="4"/>
+      <c r="D11" s="6"/>
       <c r="E11" s="4"/>
-    </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="F11" s="4"/>
+      <c r="O11" s="9"/>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B12" s="6" t="s">
         <v>67</v>
       </c>
       <c r="C12" s="6"/>
-      <c r="D12" s="4"/>
+      <c r="D12" s="6"/>
       <c r="E12" s="4"/>
-    </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="F12" s="4"/>
+      <c r="O12" s="9"/>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B13" s="6" t="s">
         <v>68</v>
       </c>
       <c r="C13" s="6"/>
-      <c r="D13" s="4"/>
+      <c r="D13" s="6"/>
       <c r="E13" s="4"/>
-    </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="F13" s="4"/>
+      <c r="O13" s="9"/>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B14" s="6" t="s">
         <v>69</v>
       </c>
       <c r="C14" s="6"/>
-      <c r="D14" s="4"/>
+      <c r="D14" s="6"/>
       <c r="E14" s="4"/>
-    </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="F14" s="4"/>
+      <c r="O14" s="9"/>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B15" s="6" t="s">
         <v>70</v>
       </c>
       <c r="C15" s="6"/>
-      <c r="D15" s="4"/>
+      <c r="D15" s="6"/>
       <c r="E15" s="4"/>
-    </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="F15" s="4"/>
+      <c r="O15" s="9"/>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B16" s="6" t="s">
         <v>71</v>
       </c>
       <c r="C16" s="6"/>
-      <c r="D16" s="4"/>
+      <c r="D16" s="6"/>
       <c r="E16" s="4"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="F16" s="4"/>
+      <c r="O16" s="9"/>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B17" s="6" t="s">
         <v>72</v>
       </c>
       <c r="C17" s="6"/>
-      <c r="D17" s="4"/>
+      <c r="D17" s="6"/>
       <c r="E17" s="4"/>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="F17" s="4"/>
+      <c r="O17" s="9"/>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B18" s="6" t="s">
         <v>73</v>
       </c>
       <c r="C18" s="6"/>
-      <c r="D18" s="4"/>
+      <c r="D18" s="6"/>
       <c r="E18" s="4"/>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="F18" s="4"/>
+      <c r="O18" s="9"/>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B19" s="6" t="s">
         <v>74</v>
       </c>
       <c r="C19" s="6"/>
-      <c r="D19" s="4"/>
+      <c r="D19" s="6"/>
       <c r="E19" s="4"/>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="F19" s="4"/>
+      <c r="O19" s="9"/>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B20" s="6" t="s">
         <v>75</v>
       </c>
       <c r="C20" s="6"/>
-      <c r="D20" s="4"/>
+      <c r="D20" s="6"/>
       <c r="E20" s="4"/>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="F20" s="4"/>
+      <c r="O20" s="9"/>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B21" s="6" t="s">
         <v>76</v>
       </c>
       <c r="C21" s="6"/>
-      <c r="D21" s="4"/>
+      <c r="D21" s="6"/>
       <c r="E21" s="4"/>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="F21" s="4"/>
+      <c r="O21" s="9"/>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B22" s="6" t="s">
         <v>77</v>
       </c>
       <c r="C22" s="6"/>
-      <c r="D22" s="4"/>
+      <c r="D22" s="6"/>
       <c r="E22" s="4"/>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="F22" s="4"/>
+      <c r="O22" s="9"/>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B23" s="6" t="s">
         <v>78</v>
       </c>
       <c r="C23" s="6"/>
-      <c r="D23" s="4"/>
+      <c r="D23" s="6"/>
       <c r="E23" s="4"/>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="F23" s="4"/>
+      <c r="O23" s="9"/>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B24" s="6" t="s">
         <v>79</v>
       </c>
       <c r="C24" s="6"/>
-      <c r="D24" s="4"/>
+      <c r="D24" s="6"/>
       <c r="E24" s="4"/>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="F24" s="4"/>
+      <c r="O24" s="9"/>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B25" s="6" t="s">
         <v>80</v>
       </c>
       <c r="C25" s="6"/>
-      <c r="D25" s="4"/>
+      <c r="D25" s="6"/>
       <c r="E25" s="4"/>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="F25" s="4"/>
+      <c r="O25" s="9"/>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B26" s="6" t="s">
         <v>81</v>
       </c>
       <c r="C26" s="6"/>
-      <c r="D26" s="4"/>
+      <c r="D26" s="6"/>
       <c r="E26" s="4"/>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="F26" s="4"/>
+      <c r="O26" s="9"/>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B27" s="6" t="s">
         <v>82</v>
       </c>
       <c r="C27" s="6"/>
-      <c r="D27" s="4"/>
+      <c r="D27" s="6"/>
       <c r="E27" s="4"/>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="F27" s="4"/>
+      <c r="O27" s="9"/>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B28" s="6" t="s">
         <v>83</v>
       </c>
       <c r="C28" s="6"/>
-      <c r="D28" s="4"/>
+      <c r="D28" s="6"/>
       <c r="E28" s="4"/>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="F28" s="4"/>
+      <c r="O28" s="9"/>
+    </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B29" s="6" t="s">
         <v>84</v>
       </c>
       <c r="C29" s="6"/>
-      <c r="D29" s="4"/>
+      <c r="D29" s="6"/>
       <c r="E29" s="4"/>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="F29" s="4"/>
+      <c r="O29" s="9"/>
+    </row>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B30" s="6" t="s">
         <v>85</v>
       </c>
       <c r="C30" s="6"/>
-      <c r="D30" s="4"/>
+      <c r="D30" s="6"/>
       <c r="E30" s="4"/>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="F30" s="4"/>
+      <c r="O30" s="9"/>
+    </row>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B31" s="6" t="s">
         <v>86</v>
       </c>
       <c r="C31" s="6"/>
-      <c r="D31" s="4"/>
+      <c r="D31" s="6"/>
       <c r="E31" s="4"/>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="F31" s="4"/>
+      <c r="O31" s="9"/>
+    </row>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B32" s="6" t="s">
         <v>87</v>
       </c>
       <c r="C32" s="6"/>
-      <c r="D32" s="4"/>
+      <c r="D32" s="6"/>
       <c r="E32" s="4"/>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="F32" s="4"/>
+      <c r="O32" s="9"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B33" s="6" t="s">
         <v>88</v>
       </c>
       <c r="C33" s="6"/>
-      <c r="D33" s="4"/>
+      <c r="D33" s="6"/>
       <c r="E33" s="4"/>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="F33" s="4"/>
+      <c r="O33" s="9"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B34" s="6" t="s">
         <v>89</v>
       </c>
       <c r="C34" s="6"/>
-      <c r="D34" s="4"/>
+      <c r="D34" s="6"/>
       <c r="E34" s="4"/>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="F34" s="4"/>
+      <c r="O34" s="9"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B35" s="6" t="s">
         <v>90</v>
       </c>
       <c r="C35" s="6"/>
-      <c r="D35" s="4"/>
+      <c r="D35" s="6"/>
       <c r="E35" s="4"/>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="F35" s="4"/>
+      <c r="O35" s="9"/>
+    </row>
+    <row r="36" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B36" s="6" t="s">
         <v>91</v>
       </c>
       <c r="C36" s="6"/>
-      <c r="D36" s="4"/>
+      <c r="D36" s="6"/>
       <c r="E36" s="4"/>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="F36" s="4"/>
+      <c r="O36" s="9"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B37" s="6" t="s">
         <v>92</v>
       </c>
       <c r="C37" s="6"/>
-      <c r="D37" s="4"/>
+      <c r="D37" s="6"/>
       <c r="E37" s="4"/>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="F37" s="4"/>
+      <c r="O37" s="9"/>
+    </row>
+    <row r="38" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B38" s="6" t="s">
         <v>93</v>
       </c>
       <c r="C38" s="6"/>
-      <c r="D38" s="4"/>
+      <c r="D38" s="6"/>
       <c r="E38" s="4"/>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="F38" s="4"/>
+      <c r="O38" s="9"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B39" s="6" t="s">
         <v>94</v>
       </c>
       <c r="C39" s="6"/>
-      <c r="D39" s="4"/>
+      <c r="D39" s="6"/>
       <c r="E39" s="4"/>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="F39" s="4"/>
+      <c r="O39" s="9"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B40" s="6" t="s">
         <v>95</v>
       </c>
       <c r="C40" s="6"/>
-      <c r="D40" s="4"/>
+      <c r="D40" s="6"/>
       <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="O40" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -5903,7 +6067,7 @@
       <selection activeCell="G29" sqref="G28:G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/template/메인AB.xlsx
+++ b/template/메인AB.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="12165" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="12165"/>
   </bookViews>
   <sheets>
     <sheet name="Digit Span (A)" sheetId="1" r:id="rId1"/>
@@ -2195,18 +2195,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[4, 6]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>3-1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[3, 8, 6]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>3-2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2243,10 +2235,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[5, 2, 1, 8, 6]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>6-1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2348,6 +2336,18 @@
   </si>
   <si>
     <t>stimulus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[3, 8, 1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[5, 2, 1, 8, 1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[4, 1]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2776,8 +2776,8 @@
   </sheetPr>
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2794,10 +2794,10 @@
         <v>97</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D1" s="7" t="s">
         <v>98</v>
@@ -2856,7 +2856,7 @@
         <v>108</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>109</v>
+        <v>147</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
@@ -2864,10 +2864,10 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>111</v>
+        <v>145</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
@@ -2875,10 +2875,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
@@ -2886,10 +2886,10 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
@@ -2897,10 +2897,10 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
@@ -2908,10 +2908,10 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
@@ -2919,10 +2919,10 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>121</v>
+        <v>146</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
@@ -2930,10 +2930,10 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
@@ -2941,10 +2941,10 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
@@ -2952,10 +2952,10 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
@@ -2963,10 +2963,10 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
@@ -2974,10 +2974,10 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
@@ -2985,10 +2985,10 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
@@ -2996,10 +2996,10 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
@@ -3007,10 +3007,10 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
@@ -3048,10 +3048,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D1" s="7" t="s">
         <v>1</v>
@@ -3090,10 +3090,10 @@
         <v>26</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>4</v>
@@ -3343,10 +3343,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D1" s="7" t="s">
         <v>96</v>
@@ -3355,10 +3355,10 @@
         <v>42</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="H1" s="6" t="s">
         <v>43</v>
@@ -3982,10 +3982,10 @@
         <v>0</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>45</v>
@@ -4064,7 +4064,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>57</v>
@@ -4470,10 +4470,10 @@
         <v>97</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D1" s="7" t="s">
         <v>98</v>
@@ -4536,7 +4536,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -4545,7 +4545,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -4554,7 +4554,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -4563,7 +4563,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -4572,7 +4572,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -4581,7 +4581,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -4590,7 +4590,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -4599,7 +4599,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -4608,7 +4608,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -4617,7 +4617,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -4626,7 +4626,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -4635,7 +4635,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -4644,7 +4644,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -4653,7 +4653,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
@@ -4692,10 +4692,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D1" s="7" t="s">
         <v>1</v>
@@ -4734,10 +4734,10 @@
         <v>26</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>4</v>
@@ -4956,10 +4956,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D1" s="7" t="s">
         <v>96</v>
@@ -4968,10 +4968,10 @@
         <v>42</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="H1" s="6" t="s">
         <v>43</v>
@@ -5002,7 +5002,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>26</v>
@@ -5569,7 +5569,7 @@
   </sheetPr>
   <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
@@ -5596,10 +5596,10 @@
         <v>0</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>45</v>
@@ -5678,7 +5678,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>57</v>

--- a/template/메인AB.xlsx
+++ b/template/메인AB.xlsx
@@ -1853,7 +1853,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="132">
   <si>
     <t>ID</t>
   </si>
@@ -2187,10 +2187,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[2, 9]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2-2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2203,34 +2199,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[6, 1, 2]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>4-1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[3, 4, 1, 7]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>4-2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[6, 1, 5, 8]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>5-1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[8, 4, 2, 3, 9]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>5-2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2239,66 +2219,34 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[3, 8, 9, 1, 7, 4]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>6-2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[7, 9 ,6, 4, 8, 3]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>7-1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[5, 1, 7, 4, 2, 3, 8]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>7-2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[9, 8, 5, 2, 1, 6, 3]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>8-1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[1, 8, 4, 5, 9, 7, 6, 3]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>8-2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[2, 9, 7, 6, 3, 1, 5, 4]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>9-1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[5, 3, 8, 4, 1, 2, 4, 6, 9]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>9-2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[4, 2, 6, 9, 1, 7, 8, 3, 5]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Reaction Time 1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2336,18 +2284,6 @@
   </si>
   <si>
     <t>stimulus</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[3, 8, 1]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[5, 2, 1, 8, 1]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[4, 1]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2777,7 +2713,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2794,10 +2730,10 @@
         <v>97</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="D1" s="7" t="s">
         <v>98</v>
@@ -2844,174 +2780,142 @@
       <c r="A5" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>107</v>
-      </c>
+      <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>147</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="B6" s="6"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>145</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>111</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>113</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>115</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>117</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="B11" s="6"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>146</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="B12" s="6"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>120</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="B13" s="6"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>122</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="B14" s="6"/>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>124</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="B15" s="6"/>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>126</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="B16" s="6"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>128</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="B17" s="6"/>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>130</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="B18" s="6"/>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>132</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="B19" s="6"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>134</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="B20" s="6"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
@@ -3048,10 +2952,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="D1" s="7" t="s">
         <v>1</v>
@@ -3090,10 +2994,10 @@
         <v>26</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>4</v>
@@ -3343,10 +3247,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="D1" s="7" t="s">
         <v>96</v>
@@ -3355,10 +3259,10 @@
         <v>42</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="H1" s="6" t="s">
         <v>43</v>
@@ -3982,10 +3886,10 @@
         <v>0</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>45</v>
@@ -4064,7 +3968,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>57</v>
@@ -4470,10 +4374,10 @@
         <v>97</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="D1" s="7" t="s">
         <v>98</v>
@@ -4527,7 +4431,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -4536,7 +4440,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -4545,7 +4449,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -4554,7 +4458,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -4563,7 +4467,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -4572,7 +4476,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -4581,7 +4485,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -4590,7 +4494,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -4599,7 +4503,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -4608,7 +4512,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -4617,7 +4521,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -4626,7 +4530,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -4635,7 +4539,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -4644,7 +4548,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -4653,7 +4557,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
@@ -4692,10 +4596,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="D1" s="7" t="s">
         <v>1</v>
@@ -4734,10 +4638,10 @@
         <v>26</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>4</v>
@@ -4956,10 +4860,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="D1" s="7" t="s">
         <v>96</v>
@@ -4968,10 +4872,10 @@
         <v>42</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="H1" s="6" t="s">
         <v>43</v>
@@ -5002,7 +4906,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>26</v>
@@ -5596,10 +5500,10 @@
         <v>0</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>45</v>
@@ -5678,7 +5582,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>57</v>

--- a/template/메인AB.xlsx
+++ b/template/메인AB.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="12165"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="12165" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Digit Span (A)" sheetId="1" r:id="rId1"/>
@@ -1853,7 +1853,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="116">
   <si>
     <t>ID</t>
   </si>
@@ -1885,24 +1885,15 @@
     <t>4-1</t>
   </si>
   <si>
-    <t>[3, 4, 1, 7]</t>
-  </si>
-  <si>
     <t>4-2</t>
   </si>
   <si>
-    <t>[6, 1, 5, 8]</t>
-  </si>
-  <si>
     <t>5-1</t>
   </si>
   <si>
     <t>5-2</t>
   </si>
   <si>
-    <t>[5, 2, 1, 8, 6]</t>
-  </si>
-  <si>
     <t>6-1</t>
   </si>
   <si>
@@ -1940,45 +1931,6 @@
   </si>
   <si>
     <t>Score</t>
-  </si>
-  <si>
-    <t>[8, 5]</t>
-  </si>
-  <si>
-    <t>[6, 4]</t>
-  </si>
-  <si>
-    <t>[4, 7, 2]</t>
-  </si>
-  <si>
-    <t>[8, 1, 5]</t>
-  </si>
-  <si>
-    <t>[4, 2, 7, 3, 1]</t>
-  </si>
-  <si>
-    <t>[3, 9, 2, 4, 8, 7]</t>
-  </si>
-  <si>
-    <t>[3 ,7 8, 2, 9, 4]</t>
-  </si>
-  <si>
-    <t>[5, 9, 1, 7, 4, 2, 8]</t>
-  </si>
-  <si>
-    <t>[5, 7, 9, 2, 8, 4, 6]</t>
-  </si>
-  <si>
-    <t>[5, 8, 1, 9, 2, 6, 4, 7]</t>
-  </si>
-  <si>
-    <t>[5, 9, 3, 6, 7, 2, 4, 3]</t>
-  </si>
-  <si>
-    <t>[5, 3, 8, 7, 1, 2, 4, 6, 9]</t>
-  </si>
-  <si>
-    <t>[4, 2, 6, 8, 1, 7, 9, 3, 5]</t>
   </si>
   <si>
     <t>반응점수</t>
@@ -2712,7 +2664,7 @@
   </sheetPr>
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
@@ -2727,22 +2679,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -2761,24 +2713,24 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -2787,7 +2739,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -2796,7 +2748,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -2805,7 +2757,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -2814,7 +2766,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -2823,7 +2775,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -2832,7 +2784,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -2841,7 +2793,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -2850,7 +2802,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -2859,7 +2811,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -2868,7 +2820,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -2877,7 +2829,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -2886,7 +2838,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -2895,7 +2847,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -2904,7 +2856,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -2913,7 +2865,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
@@ -2933,8 +2885,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="B1:C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2952,19 +2904,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="D1" s="7" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G1" s="10"/>
     </row>
@@ -2991,28 +2943,26 @@
         <v>3</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>4</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>29</v>
-      </c>
+      <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
@@ -3023,9 +2973,7 @@
       <c r="A6" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>30</v>
-      </c>
+      <c r="B6" s="6"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
@@ -3036,9 +2984,7 @@
       <c r="A7" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
@@ -3049,9 +2995,7 @@
       <c r="A8" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
@@ -3062,9 +3006,7 @@
       <c r="A9" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>10</v>
-      </c>
+      <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
@@ -3073,11 +3015,9 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>12</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
@@ -3086,11 +3026,9 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>15</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="B11" s="6"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
@@ -3099,11 +3037,9 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>33</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="B12" s="6"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
@@ -3112,11 +3048,9 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>34</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="B13" s="6"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
@@ -3125,11 +3059,9 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>35</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="B14" s="6"/>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
@@ -3138,11 +3070,9 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>36</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="B15" s="6"/>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
@@ -3151,11 +3081,9 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>37</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="B16" s="6"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
@@ -3164,11 +3092,9 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>38</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="B17" s="6"/>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
@@ -3177,11 +3103,9 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>39</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="B18" s="6"/>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
@@ -3190,11 +3114,9 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>40</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="B19" s="6"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
@@ -3203,11 +3125,9 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>41</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="B20" s="6"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
@@ -3247,28 +3167,28 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -3296,13 +3216,13 @@
         <v>3</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>4</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -3886,46 +3806,46 @@
         <v>0</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="2:16" x14ac:dyDescent="0.3">
@@ -3968,22 +3888,22 @@
         <v>2</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="O4" s="9"/>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B5" s="6" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
@@ -3993,7 +3913,7 @@
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B6" s="6" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
@@ -4003,7 +3923,7 @@
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B7" s="6" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
@@ -4013,7 +3933,7 @@
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B8" s="6" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
@@ -4023,7 +3943,7 @@
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B9" s="6" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
@@ -4033,7 +3953,7 @@
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B10" s="6" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
@@ -4043,7 +3963,7 @@
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B11" s="6" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
@@ -4053,7 +3973,7 @@
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B12" s="6" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
@@ -4063,7 +3983,7 @@
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B13" s="6" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
@@ -4073,7 +3993,7 @@
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B14" s="6" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
@@ -4083,7 +4003,7 @@
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B15" s="6" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
@@ -4093,7 +4013,7 @@
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B16" s="6" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
@@ -4103,7 +4023,7 @@
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B17" s="6" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
@@ -4113,7 +4033,7 @@
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B18" s="6" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
@@ -4123,7 +4043,7 @@
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B19" s="6" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
@@ -4133,7 +4053,7 @@
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B20" s="6" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
@@ -4143,7 +4063,7 @@
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B21" s="6" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
@@ -4153,7 +4073,7 @@
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B22" s="6" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
@@ -4163,7 +4083,7 @@
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B23" s="6" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
@@ -4173,7 +4093,7 @@
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B24" s="6" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
@@ -4183,7 +4103,7 @@
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B25" s="6" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
@@ -4193,7 +4113,7 @@
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B26" s="6" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
@@ -4203,7 +4123,7 @@
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B27" s="6" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
@@ -4213,7 +4133,7 @@
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B28" s="6" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
@@ -4223,7 +4143,7 @@
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B29" s="6" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
@@ -4233,7 +4153,7 @@
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B30" s="6" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
@@ -4243,7 +4163,7 @@
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B31" s="6" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
@@ -4253,7 +4173,7 @@
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B32" s="6" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
@@ -4263,7 +4183,7 @@
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B33" s="6" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
@@ -4273,7 +4193,7 @@
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B34" s="6" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
@@ -4283,7 +4203,7 @@
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B35" s="6" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
@@ -4293,7 +4213,7 @@
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B36" s="6" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
@@ -4303,7 +4223,7 @@
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B37" s="6" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
@@ -4313,7 +4233,7 @@
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B38" s="6" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
@@ -4323,7 +4243,7 @@
     </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B39" s="6" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
@@ -4333,7 +4253,7 @@
     </row>
     <row r="40" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B40" s="6" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
@@ -4371,22 +4291,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -4405,24 +4325,24 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -4431,7 +4351,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -4440,7 +4360,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -4449,7 +4369,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -4458,7 +4378,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -4467,7 +4387,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -4476,7 +4396,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -4485,7 +4405,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -4494,7 +4414,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -4503,7 +4423,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -4512,7 +4432,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -4521,7 +4441,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -4530,7 +4450,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -4539,7 +4459,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -4548,7 +4468,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -4557,7 +4477,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
@@ -4596,19 +4516,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="D1" s="7" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G1" s="10"/>
     </row>
@@ -4635,19 +4555,19 @@
         <v>3</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>4</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -4707,7 +4627,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -4718,7 +4638,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -4729,7 +4649,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -4740,7 +4660,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -4751,7 +4671,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -4762,7 +4682,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -4773,7 +4693,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -4784,7 +4704,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -4795,7 +4715,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -4806,7 +4726,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -4817,7 +4737,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
@@ -4860,28 +4780,28 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -4906,16 +4826,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>4</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -5500,46 +5420,46 @@
         <v>0</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="2:16" x14ac:dyDescent="0.3">
@@ -5582,22 +5502,22 @@
         <v>2</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="O4" s="9"/>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B5" s="6" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
@@ -5607,7 +5527,7 @@
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B6" s="6" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
@@ -5617,7 +5537,7 @@
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B7" s="6" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
@@ -5627,7 +5547,7 @@
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B8" s="6" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
@@ -5637,7 +5557,7 @@
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B9" s="6" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
@@ -5647,7 +5567,7 @@
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B10" s="6" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
@@ -5657,7 +5577,7 @@
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B11" s="6" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
@@ -5667,7 +5587,7 @@
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B12" s="6" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
@@ -5677,7 +5597,7 @@
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B13" s="6" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
@@ -5687,7 +5607,7 @@
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B14" s="6" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
@@ -5697,7 +5617,7 @@
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B15" s="6" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
@@ -5707,7 +5627,7 @@
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B16" s="6" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
@@ -5717,7 +5637,7 @@
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B17" s="6" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
@@ -5727,7 +5647,7 @@
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B18" s="6" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
@@ -5737,7 +5657,7 @@
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B19" s="6" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
@@ -5747,7 +5667,7 @@
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B20" s="6" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
@@ -5757,7 +5677,7 @@
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B21" s="6" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
@@ -5767,7 +5687,7 @@
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B22" s="6" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
@@ -5777,7 +5697,7 @@
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B23" s="6" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
@@ -5787,7 +5707,7 @@
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B24" s="6" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
@@ -5797,7 +5717,7 @@
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B25" s="6" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
@@ -5807,7 +5727,7 @@
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B26" s="6" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
@@ -5817,7 +5737,7 @@
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B27" s="6" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
@@ -5827,7 +5747,7 @@
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B28" s="6" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
@@ -5837,7 +5757,7 @@
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B29" s="6" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
@@ -5847,7 +5767,7 @@
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B30" s="6" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
@@ -5857,7 +5777,7 @@
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B31" s="6" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
@@ -5867,7 +5787,7 @@
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B32" s="6" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
@@ -5877,7 +5797,7 @@
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B33" s="6" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
@@ -5887,7 +5807,7 @@
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B34" s="6" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
@@ -5897,7 +5817,7 @@
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B35" s="6" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
@@ -5907,7 +5827,7 @@
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B36" s="6" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
@@ -5917,7 +5837,7 @@
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B37" s="6" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
@@ -5927,7 +5847,7 @@
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B38" s="6" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
@@ -5937,7 +5857,7 @@
     </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B39" s="6" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
@@ -5947,7 +5867,7 @@
     </row>
     <row r="40" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B40" s="6" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>

--- a/template/메인AB.xlsx
+++ b/template/메인AB.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="12165" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25610" windowHeight="12170" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Digit Span (A)" sheetId="1" r:id="rId1"/>
@@ -2668,7 +2668,7 @@
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="5.25" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23" style="1" customWidth="1"/>
@@ -2677,7 +2677,7 @@
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="6" t="s">
         <v>81</v>
       </c>
@@ -2697,7 +2697,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -2711,7 +2711,7 @@
       </c>
       <c r="F2" s="7"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="6" t="s">
         <v>85</v>
       </c>
@@ -2728,7 +2728,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" s="8" t="s">
         <v>90</v>
       </c>
@@ -2737,7 +2737,7 @@
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" s="8" t="s">
         <v>91</v>
       </c>
@@ -2746,7 +2746,7 @@
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" s="8" t="s">
         <v>92</v>
       </c>
@@ -2755,7 +2755,7 @@
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" s="8" t="s">
         <v>93</v>
       </c>
@@ -2764,7 +2764,7 @@
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" s="8" t="s">
         <v>94</v>
       </c>
@@ -2773,7 +2773,7 @@
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" s="8" t="s">
         <v>95</v>
       </c>
@@ -2782,7 +2782,7 @@
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" s="8" t="s">
         <v>96</v>
       </c>
@@ -2791,7 +2791,7 @@
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" s="8" t="s">
         <v>97</v>
       </c>
@@ -2800,7 +2800,7 @@
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" s="8" t="s">
         <v>98</v>
       </c>
@@ -2809,7 +2809,7 @@
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" s="8" t="s">
         <v>99</v>
       </c>
@@ -2818,7 +2818,7 @@
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" s="8" t="s">
         <v>100</v>
       </c>
@@ -2827,7 +2827,7 @@
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16" s="8" t="s">
         <v>101</v>
       </c>
@@ -2836,7 +2836,7 @@
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" s="8" t="s">
         <v>102</v>
       </c>
@@ -2845,7 +2845,7 @@
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18" s="8" t="s">
         <v>103</v>
       </c>
@@ -2854,7 +2854,7 @@
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19" s="8" t="s">
         <v>104</v>
       </c>
@@ -2863,7 +2863,7 @@
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20" s="8" t="s">
         <v>105</v>
       </c>
@@ -2872,7 +2872,7 @@
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
     </row>
-    <row r="21" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -2885,21 +2885,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="5.25" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.75" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="13.25" style="5" customWidth="1"/>
-    <col min="6" max="6" width="8.625" style="5" customWidth="1"/>
-    <col min="7" max="16384" width="8.625" style="5"/>
+    <col min="6" max="6" width="8.58203125" style="5" customWidth="1"/>
+    <col min="7" max="16384" width="8.58203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -2920,7 +2920,7 @@
       </c>
       <c r="G1" s="10"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -2935,7 +2935,7 @@
       <c r="F2" s="7"/>
       <c r="G2" s="10"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
@@ -2958,7 +2958,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="8" t="s">
         <v>5</v>
       </c>
@@ -2969,7 +2969,7 @@
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="8" t="s">
         <v>6</v>
       </c>
@@ -2980,7 +2980,7 @@
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="8" t="s">
         <v>7</v>
       </c>
@@ -2991,7 +2991,7 @@
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" s="8" t="s">
         <v>8</v>
       </c>
@@ -3002,7 +3002,7 @@
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" s="8" t="s">
         <v>9</v>
       </c>
@@ -3013,7 +3013,7 @@
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" s="8" t="s">
         <v>10</v>
       </c>
@@ -3024,7 +3024,7 @@
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" s="8" t="s">
         <v>11</v>
       </c>
@@ -3035,7 +3035,7 @@
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" s="8" t="s">
         <v>12</v>
       </c>
@@ -3046,7 +3046,7 @@
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" s="8" t="s">
         <v>13</v>
       </c>
@@ -3057,7 +3057,7 @@
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" s="8" t="s">
         <v>14</v>
       </c>
@@ -3068,7 +3068,7 @@
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" s="8" t="s">
         <v>15</v>
       </c>
@@ -3079,7 +3079,7 @@
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" s="8" t="s">
         <v>16</v>
       </c>
@@ -3090,7 +3090,7 @@
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" s="8" t="s">
         <v>17</v>
       </c>
@@ -3101,7 +3101,7 @@
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18" s="8" t="s">
         <v>18</v>
       </c>
@@ -3112,7 +3112,7 @@
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A19" s="8" t="s">
         <v>19</v>
       </c>
@@ -3123,7 +3123,7 @@
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A20" s="8" t="s">
         <v>20</v>
       </c>
@@ -3150,19 +3150,19 @@
   <dimension ref="A1:I64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="B1:C1"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="9" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.58203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.58203125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -3191,7 +3191,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" s="8"/>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
@@ -3208,7 +3208,7 @@
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
@@ -3225,7 +3225,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5" s="6">
         <v>1</v>
       </c>
@@ -3234,7 +3234,7 @@
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6" s="6">
         <v>2</v>
       </c>
@@ -3243,7 +3243,7 @@
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7" s="6">
         <v>3</v>
       </c>
@@ -3252,7 +3252,7 @@
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A8" s="6">
         <v>4</v>
       </c>
@@ -3261,7 +3261,7 @@
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A9" s="6">
         <v>5</v>
       </c>
@@ -3270,7 +3270,7 @@
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A10" s="6">
         <v>6</v>
       </c>
@@ -3279,7 +3279,7 @@
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A11" s="6">
         <v>7</v>
       </c>
@@ -3288,7 +3288,7 @@
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A12" s="6">
         <v>8</v>
       </c>
@@ -3297,7 +3297,7 @@
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A13" s="6">
         <v>9</v>
       </c>
@@ -3306,7 +3306,7 @@
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A14" s="6">
         <v>10</v>
       </c>
@@ -3315,7 +3315,7 @@
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A15" s="6">
         <v>11</v>
       </c>
@@ -3324,7 +3324,7 @@
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A16" s="6">
         <v>12</v>
       </c>
@@ -3333,7 +3333,7 @@
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" s="6">
         <v>13</v>
       </c>
@@ -3342,7 +3342,7 @@
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18" s="6">
         <v>14</v>
       </c>
@@ -3351,7 +3351,7 @@
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19" s="6">
         <v>15</v>
       </c>
@@ -3360,7 +3360,7 @@
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20" s="6">
         <v>16</v>
       </c>
@@ -3369,7 +3369,7 @@
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21" s="6">
         <v>17</v>
       </c>
@@ -3378,7 +3378,7 @@
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A22" s="6">
         <v>18</v>
       </c>
@@ -3387,7 +3387,7 @@
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A23" s="6">
         <v>19</v>
       </c>
@@ -3396,7 +3396,7 @@
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A24" s="6">
         <v>20</v>
       </c>
@@ -3405,7 +3405,7 @@
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A25" s="6">
         <v>21</v>
       </c>
@@ -3414,7 +3414,7 @@
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A26" s="6">
         <v>22</v>
       </c>
@@ -3423,7 +3423,7 @@
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A27" s="6">
         <v>23</v>
       </c>
@@ -3432,7 +3432,7 @@
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A28" s="6">
         <v>24</v>
       </c>
@@ -3441,7 +3441,7 @@
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A29" s="6">
         <v>25</v>
       </c>
@@ -3450,7 +3450,7 @@
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A30" s="6">
         <v>26</v>
       </c>
@@ -3459,7 +3459,7 @@
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A31" s="6">
         <v>27</v>
       </c>
@@ -3468,7 +3468,7 @@
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A32" s="6">
         <v>28</v>
       </c>
@@ -3477,7 +3477,7 @@
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A33" s="6">
         <v>29</v>
       </c>
@@ -3486,7 +3486,7 @@
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A34" s="6">
         <v>30</v>
       </c>
@@ -3495,7 +3495,7 @@
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A35" s="6">
         <v>31</v>
       </c>
@@ -3504,7 +3504,7 @@
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A36" s="6">
         <v>32</v>
       </c>
@@ -3513,7 +3513,7 @@
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A37" s="6">
         <v>33</v>
       </c>
@@ -3522,7 +3522,7 @@
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A38" s="6">
         <v>34</v>
       </c>
@@ -3531,7 +3531,7 @@
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A39" s="6">
         <v>35</v>
       </c>
@@ -3540,7 +3540,7 @@
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A40" s="6">
         <v>36</v>
       </c>
@@ -3549,7 +3549,7 @@
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A41" s="6">
         <v>37</v>
       </c>
@@ -3558,7 +3558,7 @@
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A42" s="6">
         <v>38</v>
       </c>
@@ -3567,7 +3567,7 @@
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A43" s="6">
         <v>39</v>
       </c>
@@ -3576,7 +3576,7 @@
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A44" s="6">
         <v>40</v>
       </c>
@@ -3585,7 +3585,7 @@
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A45" s="6">
         <v>41</v>
       </c>
@@ -3594,7 +3594,7 @@
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A46" s="6">
         <v>42</v>
       </c>
@@ -3603,7 +3603,7 @@
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A47" s="6">
         <v>43</v>
       </c>
@@ -3612,7 +3612,7 @@
       <c r="D47" s="6"/>
       <c r="E47" s="6"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A48" s="6">
         <v>44</v>
       </c>
@@ -3621,7 +3621,7 @@
       <c r="D48" s="6"/>
       <c r="E48" s="6"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A49" s="6">
         <v>45</v>
       </c>
@@ -3630,7 +3630,7 @@
       <c r="D49" s="6"/>
       <c r="E49" s="6"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A50" s="6">
         <v>46</v>
       </c>
@@ -3639,7 +3639,7 @@
       <c r="D50" s="6"/>
       <c r="E50" s="6"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A51" s="6">
         <v>47</v>
       </c>
@@ -3648,7 +3648,7 @@
       <c r="D51" s="6"/>
       <c r="E51" s="6"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A52" s="6">
         <v>48</v>
       </c>
@@ -3657,7 +3657,7 @@
       <c r="D52" s="6"/>
       <c r="E52" s="6"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A53" s="6">
         <v>49</v>
       </c>
@@ -3666,7 +3666,7 @@
       <c r="D53" s="6"/>
       <c r="E53" s="6"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A54" s="6">
         <v>50</v>
       </c>
@@ -3675,7 +3675,7 @@
       <c r="D54" s="6"/>
       <c r="E54" s="6"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A55" s="6">
         <v>51</v>
       </c>
@@ -3684,7 +3684,7 @@
       <c r="D55" s="6"/>
       <c r="E55" s="6"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A56" s="6">
         <v>52</v>
       </c>
@@ -3693,7 +3693,7 @@
       <c r="D56" s="6"/>
       <c r="E56" s="6"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A57" s="6">
         <v>53</v>
       </c>
@@ -3702,7 +3702,7 @@
       <c r="D57" s="6"/>
       <c r="E57" s="6"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A58" s="6">
         <v>54</v>
       </c>
@@ -3711,7 +3711,7 @@
       <c r="D58" s="6"/>
       <c r="E58" s="6"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A59" s="6">
         <v>55</v>
       </c>
@@ -3720,7 +3720,7 @@
       <c r="D59" s="6"/>
       <c r="E59" s="6"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A60" s="6">
         <v>56</v>
       </c>
@@ -3729,7 +3729,7 @@
       <c r="D60" s="6"/>
       <c r="E60" s="6"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A61" s="6">
         <v>57</v>
       </c>
@@ -3738,7 +3738,7 @@
       <c r="D61" s="6"/>
       <c r="E61" s="6"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A62" s="6">
         <v>58</v>
       </c>
@@ -3747,7 +3747,7 @@
       <c r="D62" s="6"/>
       <c r="E62" s="6"/>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A63" s="6">
         <v>59</v>
       </c>
@@ -3756,7 +3756,7 @@
       <c r="D63" s="6"/>
       <c r="E63" s="6"/>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A64" s="6">
         <v>60</v>
       </c>
@@ -3784,24 +3784,24 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="4.25" style="9" customWidth="1"/>
     <col min="2" max="2" width="6.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.625" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.08203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.58203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" style="9" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.75" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.625" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.58203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" style="9" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.75" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.625" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.625" style="9" customWidth="1"/>
+    <col min="10" max="10" width="13.58203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.58203125" style="9" customWidth="1"/>
     <col min="12" max="12" width="4.75" style="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="12.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="12.08203125" style="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3848,7 +3848,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -3883,7 +3883,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B4" s="6" t="s">
         <v>2</v>
       </c>
@@ -3901,7 +3901,7 @@
       </c>
       <c r="O4" s="9"/>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B5" s="6" t="s">
         <v>44</v>
       </c>
@@ -3911,7 +3911,7 @@
       <c r="F5" s="4"/>
       <c r="O5" s="9"/>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B6" s="6" t="s">
         <v>45</v>
       </c>
@@ -3921,7 +3921,7 @@
       <c r="F6" s="4"/>
       <c r="O6" s="9"/>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B7" s="6" t="s">
         <v>46</v>
       </c>
@@ -3931,7 +3931,7 @@
       <c r="F7" s="4"/>
       <c r="O7" s="9"/>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B8" s="6" t="s">
         <v>47</v>
       </c>
@@ -3941,7 +3941,7 @@
       <c r="F8" s="4"/>
       <c r="O8" s="9"/>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B9" s="6" t="s">
         <v>48</v>
       </c>
@@ -3951,7 +3951,7 @@
       <c r="F9" s="4"/>
       <c r="O9" s="9"/>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B10" s="6" t="s">
         <v>49</v>
       </c>
@@ -3961,7 +3961,7 @@
       <c r="F10" s="4"/>
       <c r="O10" s="9"/>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B11" s="6" t="s">
         <v>50</v>
       </c>
@@ -3971,7 +3971,7 @@
       <c r="F11" s="4"/>
       <c r="O11" s="9"/>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B12" s="6" t="s">
         <v>51</v>
       </c>
@@ -3981,7 +3981,7 @@
       <c r="F12" s="4"/>
       <c r="O12" s="9"/>
     </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B13" s="6" t="s">
         <v>52</v>
       </c>
@@ -3991,7 +3991,7 @@
       <c r="F13" s="4"/>
       <c r="O13" s="9"/>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B14" s="6" t="s">
         <v>53</v>
       </c>
@@ -4001,7 +4001,7 @@
       <c r="F14" s="4"/>
       <c r="O14" s="9"/>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B15" s="6" t="s">
         <v>54</v>
       </c>
@@ -4011,7 +4011,7 @@
       <c r="F15" s="4"/>
       <c r="O15" s="9"/>
     </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B16" s="6" t="s">
         <v>55</v>
       </c>
@@ -4021,7 +4021,7 @@
       <c r="F16" s="4"/>
       <c r="O16" s="9"/>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B17" s="6" t="s">
         <v>56</v>
       </c>
@@ -4031,7 +4031,7 @@
       <c r="F17" s="4"/>
       <c r="O17" s="9"/>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B18" s="6" t="s">
         <v>57</v>
       </c>
@@ -4041,7 +4041,7 @@
       <c r="F18" s="4"/>
       <c r="O18" s="9"/>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B19" s="6" t="s">
         <v>58</v>
       </c>
@@ -4051,7 +4051,7 @@
       <c r="F19" s="4"/>
       <c r="O19" s="9"/>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B20" s="6" t="s">
         <v>59</v>
       </c>
@@ -4061,7 +4061,7 @@
       <c r="F20" s="4"/>
       <c r="O20" s="9"/>
     </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B21" s="6" t="s">
         <v>60</v>
       </c>
@@ -4071,7 +4071,7 @@
       <c r="F21" s="4"/>
       <c r="O21" s="9"/>
     </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B22" s="6" t="s">
         <v>61</v>
       </c>
@@ -4081,7 +4081,7 @@
       <c r="F22" s="4"/>
       <c r="O22" s="9"/>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B23" s="6" t="s">
         <v>62</v>
       </c>
@@ -4091,7 +4091,7 @@
       <c r="F23" s="4"/>
       <c r="O23" s="9"/>
     </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B24" s="6" t="s">
         <v>63</v>
       </c>
@@ -4101,7 +4101,7 @@
       <c r="F24" s="4"/>
       <c r="O24" s="9"/>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B25" s="6" t="s">
         <v>64</v>
       </c>
@@ -4111,7 +4111,7 @@
       <c r="F25" s="4"/>
       <c r="O25" s="9"/>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B26" s="6" t="s">
         <v>65</v>
       </c>
@@ -4121,7 +4121,7 @@
       <c r="F26" s="4"/>
       <c r="O26" s="9"/>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B27" s="6" t="s">
         <v>66</v>
       </c>
@@ -4131,7 +4131,7 @@
       <c r="F27" s="4"/>
       <c r="O27" s="9"/>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B28" s="6" t="s">
         <v>67</v>
       </c>
@@ -4141,7 +4141,7 @@
       <c r="F28" s="4"/>
       <c r="O28" s="9"/>
     </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B29" s="6" t="s">
         <v>68</v>
       </c>
@@ -4151,7 +4151,7 @@
       <c r="F29" s="4"/>
       <c r="O29" s="9"/>
     </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B30" s="6" t="s">
         <v>69</v>
       </c>
@@ -4161,7 +4161,7 @@
       <c r="F30" s="4"/>
       <c r="O30" s="9"/>
     </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B31" s="6" t="s">
         <v>70</v>
       </c>
@@ -4171,7 +4171,7 @@
       <c r="F31" s="4"/>
       <c r="O31" s="9"/>
     </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B32" s="6" t="s">
         <v>71</v>
       </c>
@@ -4181,7 +4181,7 @@
       <c r="F32" s="4"/>
       <c r="O32" s="9"/>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B33" s="6" t="s">
         <v>72</v>
       </c>
@@ -4191,7 +4191,7 @@
       <c r="F33" s="4"/>
       <c r="O33" s="9"/>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B34" s="6" t="s">
         <v>73</v>
       </c>
@@ -4201,7 +4201,7 @@
       <c r="F34" s="4"/>
       <c r="O34" s="9"/>
     </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B35" s="6" t="s">
         <v>74</v>
       </c>
@@ -4211,7 +4211,7 @@
       <c r="F35" s="4"/>
       <c r="O35" s="9"/>
     </row>
-    <row r="36" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B36" s="6" t="s">
         <v>75</v>
       </c>
@@ -4221,7 +4221,7 @@
       <c r="F36" s="4"/>
       <c r="O36" s="9"/>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B37" s="6" t="s">
         <v>76</v>
       </c>
@@ -4231,7 +4231,7 @@
       <c r="F37" s="4"/>
       <c r="O37" s="9"/>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B38" s="6" t="s">
         <v>77</v>
       </c>
@@ -4241,7 +4241,7 @@
       <c r="F38" s="4"/>
       <c r="O38" s="9"/>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B39" s="6" t="s">
         <v>78</v>
       </c>
@@ -4251,7 +4251,7 @@
       <c r="F39" s="4"/>
       <c r="O39" s="9"/>
     </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B40" s="6" t="s">
         <v>79</v>
       </c>
@@ -4280,7 +4280,7 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="5.25" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23" style="1" customWidth="1"/>
@@ -4289,7 +4289,7 @@
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="6" t="s">
         <v>81</v>
       </c>
@@ -4309,7 +4309,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -4323,7 +4323,7 @@
       </c>
       <c r="F2" s="7"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="6" t="s">
         <v>85</v>
       </c>
@@ -4340,7 +4340,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" s="8" t="s">
         <v>90</v>
       </c>
@@ -4349,7 +4349,7 @@
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" s="8" t="s">
         <v>91</v>
       </c>
@@ -4358,7 +4358,7 @@
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" s="8" t="s">
         <v>92</v>
       </c>
@@ -4367,7 +4367,7 @@
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" s="8" t="s">
         <v>93</v>
       </c>
@@ -4376,7 +4376,7 @@
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" s="8" t="s">
         <v>94</v>
       </c>
@@ -4385,7 +4385,7 @@
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" s="8" t="s">
         <v>95</v>
       </c>
@@ -4394,7 +4394,7 @@
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" s="8" t="s">
         <v>96</v>
       </c>
@@ -4403,7 +4403,7 @@
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" s="8" t="s">
         <v>97</v>
       </c>
@@ -4412,7 +4412,7 @@
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" s="8" t="s">
         <v>98</v>
       </c>
@@ -4421,7 +4421,7 @@
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" s="8" t="s">
         <v>99</v>
       </c>
@@ -4430,7 +4430,7 @@
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" s="8" t="s">
         <v>100</v>
       </c>
@@ -4439,7 +4439,7 @@
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16" s="8" t="s">
         <v>101</v>
       </c>
@@ -4448,7 +4448,7 @@
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" s="8" t="s">
         <v>102</v>
       </c>
@@ -4457,7 +4457,7 @@
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18" s="8" t="s">
         <v>103</v>
       </c>
@@ -4466,7 +4466,7 @@
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19" s="8" t="s">
         <v>104</v>
       </c>
@@ -4475,7 +4475,7 @@
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20" s="8" t="s">
         <v>105</v>
       </c>
@@ -4484,7 +4484,7 @@
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
     </row>
-    <row r="21" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -4501,17 +4501,17 @@
       <selection activeCell="H17" sqref="G8:H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="5.25" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.75" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="13.25" style="5" customWidth="1"/>
-    <col min="6" max="6" width="8.625" style="5" customWidth="1"/>
-    <col min="7" max="16384" width="8.625" style="5"/>
+    <col min="6" max="6" width="8.58203125" style="5" customWidth="1"/>
+    <col min="7" max="16384" width="8.58203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -4532,7 +4532,7 @@
       </c>
       <c r="G1" s="10"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -4547,7 +4547,7 @@
       <c r="F2" s="7"/>
       <c r="G2" s="10"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
@@ -4570,7 +4570,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="8" t="s">
         <v>5</v>
       </c>
@@ -4581,7 +4581,7 @@
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="8" t="s">
         <v>6</v>
       </c>
@@ -4592,7 +4592,7 @@
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="8" t="s">
         <v>7</v>
       </c>
@@ -4603,7 +4603,7 @@
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" s="8" t="s">
         <v>8</v>
       </c>
@@ -4614,7 +4614,7 @@
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" s="8" t="s">
         <v>9</v>
       </c>
@@ -4625,7 +4625,7 @@
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" s="8" t="s">
         <v>10</v>
       </c>
@@ -4636,7 +4636,7 @@
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" s="8" t="s">
         <v>11</v>
       </c>
@@ -4647,7 +4647,7 @@
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" s="8" t="s">
         <v>12</v>
       </c>
@@ -4658,7 +4658,7 @@
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" s="8" t="s">
         <v>13</v>
       </c>
@@ -4669,7 +4669,7 @@
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" s="8" t="s">
         <v>14</v>
       </c>
@@ -4680,7 +4680,7 @@
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" s="8" t="s">
         <v>15</v>
       </c>
@@ -4691,7 +4691,7 @@
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" s="8" t="s">
         <v>16</v>
       </c>
@@ -4702,7 +4702,7 @@
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" s="8" t="s">
         <v>17</v>
       </c>
@@ -4713,7 +4713,7 @@
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18" s="8" t="s">
         <v>18</v>
       </c>
@@ -4724,7 +4724,7 @@
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A19" s="8" t="s">
         <v>19</v>
       </c>
@@ -4735,7 +4735,7 @@
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A20" s="8" t="s">
         <v>20</v>
       </c>
@@ -4761,21 +4761,21 @@
   </sheetPr>
   <dimension ref="A1:I64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="9" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.58203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.58203125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.625" style="5"/>
+    <col min="6" max="16384" width="8.58203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -4804,7 +4804,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" s="8"/>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
@@ -4821,7 +4821,7 @@
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
@@ -4838,7 +4838,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5" s="6">
         <v>1</v>
       </c>
@@ -4847,7 +4847,7 @@
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6" s="6">
         <v>2</v>
       </c>
@@ -4856,7 +4856,7 @@
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7" s="6">
         <v>3</v>
       </c>
@@ -4865,7 +4865,7 @@
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A8" s="6">
         <v>4</v>
       </c>
@@ -4874,7 +4874,7 @@
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A9" s="6">
         <v>5</v>
       </c>
@@ -4883,7 +4883,7 @@
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A10" s="6">
         <v>6</v>
       </c>
@@ -4892,7 +4892,7 @@
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A11" s="6">
         <v>7</v>
       </c>
@@ -4901,7 +4901,7 @@
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A12" s="6">
         <v>8</v>
       </c>
@@ -4910,7 +4910,7 @@
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A13" s="6">
         <v>9</v>
       </c>
@@ -4919,7 +4919,7 @@
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A14" s="6">
         <v>10</v>
       </c>
@@ -4928,7 +4928,7 @@
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A15" s="6">
         <v>11</v>
       </c>
@@ -4937,7 +4937,7 @@
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A16" s="6">
         <v>12</v>
       </c>
@@ -4946,7 +4946,7 @@
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" s="6">
         <v>13</v>
       </c>
@@ -4955,7 +4955,7 @@
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18" s="6">
         <v>14</v>
       </c>
@@ -4964,7 +4964,7 @@
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19" s="6">
         <v>15</v>
       </c>
@@ -4973,7 +4973,7 @@
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20" s="6">
         <v>16</v>
       </c>
@@ -4982,7 +4982,7 @@
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21" s="6">
         <v>17</v>
       </c>
@@ -4991,7 +4991,7 @@
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A22" s="6">
         <v>18</v>
       </c>
@@ -5000,7 +5000,7 @@
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A23" s="6">
         <v>19</v>
       </c>
@@ -5009,7 +5009,7 @@
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A24" s="6">
         <v>20</v>
       </c>
@@ -5018,7 +5018,7 @@
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A25" s="6">
         <v>21</v>
       </c>
@@ -5027,7 +5027,7 @@
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A26" s="6">
         <v>22</v>
       </c>
@@ -5036,7 +5036,7 @@
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A27" s="6">
         <v>23</v>
       </c>
@@ -5045,7 +5045,7 @@
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A28" s="6">
         <v>24</v>
       </c>
@@ -5054,7 +5054,7 @@
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A29" s="6">
         <v>25</v>
       </c>
@@ -5063,7 +5063,7 @@
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A30" s="6">
         <v>26</v>
       </c>
@@ -5072,7 +5072,7 @@
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A31" s="6">
         <v>27</v>
       </c>
@@ -5081,7 +5081,7 @@
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A32" s="6">
         <v>28</v>
       </c>
@@ -5090,7 +5090,7 @@
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A33" s="6">
         <v>29</v>
       </c>
@@ -5099,7 +5099,7 @@
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A34" s="6">
         <v>30</v>
       </c>
@@ -5108,7 +5108,7 @@
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A35" s="6">
         <v>31</v>
       </c>
@@ -5117,7 +5117,7 @@
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A36" s="6">
         <v>32</v>
       </c>
@@ -5126,7 +5126,7 @@
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A37" s="6">
         <v>33</v>
       </c>
@@ -5135,7 +5135,7 @@
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A38" s="6">
         <v>34</v>
       </c>
@@ -5144,7 +5144,7 @@
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A39" s="6">
         <v>35</v>
       </c>
@@ -5153,7 +5153,7 @@
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A40" s="6">
         <v>36</v>
       </c>
@@ -5162,7 +5162,7 @@
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A41" s="6">
         <v>37</v>
       </c>
@@ -5171,7 +5171,7 @@
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A42" s="6">
         <v>38</v>
       </c>
@@ -5180,7 +5180,7 @@
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A43" s="6">
         <v>39</v>
       </c>
@@ -5189,7 +5189,7 @@
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A44" s="6">
         <v>40</v>
       </c>
@@ -5198,7 +5198,7 @@
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A45" s="6">
         <v>41</v>
       </c>
@@ -5207,7 +5207,7 @@
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A46" s="6">
         <v>42</v>
       </c>
@@ -5216,7 +5216,7 @@
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A47" s="6">
         <v>43</v>
       </c>
@@ -5225,7 +5225,7 @@
       <c r="D47" s="6"/>
       <c r="E47" s="6"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A48" s="6">
         <v>44</v>
       </c>
@@ -5234,7 +5234,7 @@
       <c r="D48" s="6"/>
       <c r="E48" s="6"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A49" s="6">
         <v>45</v>
       </c>
@@ -5243,7 +5243,7 @@
       <c r="D49" s="6"/>
       <c r="E49" s="6"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A50" s="6">
         <v>46</v>
       </c>
@@ -5252,7 +5252,7 @@
       <c r="D50" s="6"/>
       <c r="E50" s="6"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A51" s="6">
         <v>47</v>
       </c>
@@ -5261,7 +5261,7 @@
       <c r="D51" s="6"/>
       <c r="E51" s="6"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A52" s="6">
         <v>48</v>
       </c>
@@ -5270,7 +5270,7 @@
       <c r="D52" s="6"/>
       <c r="E52" s="6"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A53" s="6">
         <v>49</v>
       </c>
@@ -5279,7 +5279,7 @@
       <c r="D53" s="6"/>
       <c r="E53" s="6"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A54" s="6">
         <v>50</v>
       </c>
@@ -5288,7 +5288,7 @@
       <c r="D54" s="6"/>
       <c r="E54" s="6"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A55" s="6">
         <v>51</v>
       </c>
@@ -5297,7 +5297,7 @@
       <c r="D55" s="6"/>
       <c r="E55" s="6"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A56" s="6">
         <v>52</v>
       </c>
@@ -5306,7 +5306,7 @@
       <c r="D56" s="6"/>
       <c r="E56" s="6"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A57" s="6">
         <v>53</v>
       </c>
@@ -5315,7 +5315,7 @@
       <c r="D57" s="6"/>
       <c r="E57" s="6"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A58" s="6">
         <v>54</v>
       </c>
@@ -5324,7 +5324,7 @@
       <c r="D58" s="6"/>
       <c r="E58" s="6"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A59" s="6">
         <v>55</v>
       </c>
@@ -5333,7 +5333,7 @@
       <c r="D59" s="6"/>
       <c r="E59" s="6"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A60" s="6">
         <v>56</v>
       </c>
@@ -5342,7 +5342,7 @@
       <c r="D60" s="6"/>
       <c r="E60" s="6"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A61" s="6">
         <v>57</v>
       </c>
@@ -5351,7 +5351,7 @@
       <c r="D61" s="6"/>
       <c r="E61" s="6"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A62" s="6">
         <v>58</v>
       </c>
@@ -5360,7 +5360,7 @@
       <c r="D62" s="6"/>
       <c r="E62" s="6"/>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A63" s="6">
         <v>59</v>
       </c>
@@ -5369,7 +5369,7 @@
       <c r="D63" s="6"/>
       <c r="E63" s="6"/>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A64" s="6">
         <v>60</v>
       </c>
@@ -5397,25 +5397,25 @@
       <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="4.25" style="9" customWidth="1"/>
     <col min="2" max="2" width="6.25" style="1" customWidth="1"/>
     <col min="3" max="3" width="15" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.625" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.58203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" style="9" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.75" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.625" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.58203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" style="9" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.75" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.625" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.625" style="9" customWidth="1"/>
+    <col min="10" max="10" width="13.58203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.58203125" style="9" customWidth="1"/>
     <col min="12" max="12" width="4.75" style="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="12.125" style="9" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.625" style="5"/>
+    <col min="13" max="14" width="12.08203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.58203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5462,7 +5462,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -5497,7 +5497,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B4" s="6" t="s">
         <v>2</v>
       </c>
@@ -5515,7 +5515,7 @@
       </c>
       <c r="O4" s="9"/>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B5" s="6" t="s">
         <v>44</v>
       </c>
@@ -5525,7 +5525,7 @@
       <c r="F5" s="4"/>
       <c r="O5" s="9"/>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B6" s="6" t="s">
         <v>45</v>
       </c>
@@ -5535,7 +5535,7 @@
       <c r="F6" s="4"/>
       <c r="O6" s="9"/>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B7" s="6" t="s">
         <v>46</v>
       </c>
@@ -5545,7 +5545,7 @@
       <c r="F7" s="4"/>
       <c r="O7" s="9"/>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B8" s="6" t="s">
         <v>47</v>
       </c>
@@ -5555,7 +5555,7 @@
       <c r="F8" s="4"/>
       <c r="O8" s="9"/>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B9" s="6" t="s">
         <v>48</v>
       </c>
@@ -5565,7 +5565,7 @@
       <c r="F9" s="4"/>
       <c r="O9" s="9"/>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B10" s="6" t="s">
         <v>49</v>
       </c>
@@ -5575,7 +5575,7 @@
       <c r="F10" s="4"/>
       <c r="O10" s="9"/>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B11" s="6" t="s">
         <v>50</v>
       </c>
@@ -5585,7 +5585,7 @@
       <c r="F11" s="4"/>
       <c r="O11" s="9"/>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B12" s="6" t="s">
         <v>51</v>
       </c>
@@ -5595,7 +5595,7 @@
       <c r="F12" s="4"/>
       <c r="O12" s="9"/>
     </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B13" s="6" t="s">
         <v>52</v>
       </c>
@@ -5605,7 +5605,7 @@
       <c r="F13" s="4"/>
       <c r="O13" s="9"/>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B14" s="6" t="s">
         <v>53</v>
       </c>
@@ -5615,7 +5615,7 @@
       <c r="F14" s="4"/>
       <c r="O14" s="9"/>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B15" s="6" t="s">
         <v>54</v>
       </c>
@@ -5625,7 +5625,7 @@
       <c r="F15" s="4"/>
       <c r="O15" s="9"/>
     </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B16" s="6" t="s">
         <v>55</v>
       </c>
@@ -5635,7 +5635,7 @@
       <c r="F16" s="4"/>
       <c r="O16" s="9"/>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B17" s="6" t="s">
         <v>56</v>
       </c>
@@ -5645,7 +5645,7 @@
       <c r="F17" s="4"/>
       <c r="O17" s="9"/>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B18" s="6" t="s">
         <v>57</v>
       </c>
@@ -5655,7 +5655,7 @@
       <c r="F18" s="4"/>
       <c r="O18" s="9"/>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B19" s="6" t="s">
         <v>58</v>
       </c>
@@ -5665,7 +5665,7 @@
       <c r="F19" s="4"/>
       <c r="O19" s="9"/>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B20" s="6" t="s">
         <v>59</v>
       </c>
@@ -5675,7 +5675,7 @@
       <c r="F20" s="4"/>
       <c r="O20" s="9"/>
     </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B21" s="6" t="s">
         <v>60</v>
       </c>
@@ -5685,7 +5685,7 @@
       <c r="F21" s="4"/>
       <c r="O21" s="9"/>
     </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B22" s="6" t="s">
         <v>61</v>
       </c>
@@ -5695,7 +5695,7 @@
       <c r="F22" s="4"/>
       <c r="O22" s="9"/>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B23" s="6" t="s">
         <v>62</v>
       </c>
@@ -5705,7 +5705,7 @@
       <c r="F23" s="4"/>
       <c r="O23" s="9"/>
     </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B24" s="6" t="s">
         <v>63</v>
       </c>
@@ -5715,7 +5715,7 @@
       <c r="F24" s="4"/>
       <c r="O24" s="9"/>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B25" s="6" t="s">
         <v>64</v>
       </c>
@@ -5725,7 +5725,7 @@
       <c r="F25" s="4"/>
       <c r="O25" s="9"/>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B26" s="6" t="s">
         <v>65</v>
       </c>
@@ -5735,7 +5735,7 @@
       <c r="F26" s="4"/>
       <c r="O26" s="9"/>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B27" s="6" t="s">
         <v>66</v>
       </c>
@@ -5745,7 +5745,7 @@
       <c r="F27" s="4"/>
       <c r="O27" s="9"/>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B28" s="6" t="s">
         <v>67</v>
       </c>
@@ -5755,7 +5755,7 @@
       <c r="F28" s="4"/>
       <c r="O28" s="9"/>
     </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B29" s="6" t="s">
         <v>68</v>
       </c>
@@ -5765,7 +5765,7 @@
       <c r="F29" s="4"/>
       <c r="O29" s="9"/>
     </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B30" s="6" t="s">
         <v>69</v>
       </c>
@@ -5775,7 +5775,7 @@
       <c r="F30" s="4"/>
       <c r="O30" s="9"/>
     </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B31" s="6" t="s">
         <v>70</v>
       </c>
@@ -5785,7 +5785,7 @@
       <c r="F31" s="4"/>
       <c r="O31" s="9"/>
     </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B32" s="6" t="s">
         <v>71</v>
       </c>
@@ -5795,7 +5795,7 @@
       <c r="F32" s="4"/>
       <c r="O32" s="9"/>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B33" s="6" t="s">
         <v>72</v>
       </c>
@@ -5805,7 +5805,7 @@
       <c r="F33" s="4"/>
       <c r="O33" s="9"/>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B34" s="6" t="s">
         <v>73</v>
       </c>
@@ -5815,7 +5815,7 @@
       <c r="F34" s="4"/>
       <c r="O34" s="9"/>
     </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B35" s="6" t="s">
         <v>74</v>
       </c>
@@ -5825,7 +5825,7 @@
       <c r="F35" s="4"/>
       <c r="O35" s="9"/>
     </row>
-    <row r="36" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B36" s="6" t="s">
         <v>75</v>
       </c>
@@ -5835,7 +5835,7 @@
       <c r="F36" s="4"/>
       <c r="O36" s="9"/>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B37" s="6" t="s">
         <v>76</v>
       </c>
@@ -5845,7 +5845,7 @@
       <c r="F37" s="4"/>
       <c r="O37" s="9"/>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B38" s="6" t="s">
         <v>77</v>
       </c>
@@ -5855,7 +5855,7 @@
       <c r="F38" s="4"/>
       <c r="O38" s="9"/>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B39" s="6" t="s">
         <v>78</v>
       </c>
@@ -5865,7 +5865,7 @@
       <c r="F39" s="4"/>
       <c r="O39" s="9"/>
     </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B40" s="6" t="s">
         <v>79</v>
       </c>
@@ -5891,7 +5891,7 @@
       <selection activeCell="G29" sqref="G28:G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/template/메인AB.xlsx
+++ b/template/메인AB.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25610" windowHeight="12170" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25610" windowHeight="12170" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Digit Span (A)" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="Digit Span (B)" sheetId="6" r:id="rId5"/>
     <sheet name="Corsi (B)" sheetId="7" r:id="rId6"/>
     <sheet name="Go, No-Go (B)" sheetId="8" r:id="rId7"/>
-    <sheet name="DCCS (B)" sheetId="9" r:id="rId8"/>
+    <sheet name="DCCS (B)" sheetId="10" r:id="rId8"/>
     <sheet name="total" sheetId="5" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -32,6 +32,21 @@
     <author>GC</author>
   </authors>
   <commentList>
+    <comment ref="C1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>정확한 개별 반응의 총합
+(범위 0~88)</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="D1" authorId="0" shapeId="0">
       <text>
         <r>
@@ -42,27 +57,12 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>정확한 개별 반응의 총합
-(범위 0~88)</t>
+          <t>정확하게 반응한 시행 수 
+(범위: 0~16)</t>
         </r>
       </text>
     </comment>
     <comment ref="E1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>정확하게 반응한 시행 수 
-(범위: 0~16)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -508,7 +508,7 @@
     <author>GC</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -524,7 +524,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -540,7 +540,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -614,7 +614,7 @@
     <author>GC</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -627,6 +627,22 @@
           </rPr>
           <t>No-Go 자극이 제시되었을 때 키보드를 누르지 않은 경우, 
 점수범위 0~10점</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="맑은 고딕"/>
+            <family val="2"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Go에 Go
+총 50점</t>
         </r>
       </text>
     </comment>
@@ -634,15 +650,97 @@
       <text>
         <r>
           <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="맑은 고딕"/>
-            <family val="2"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Go에 Go
-총 50점</t>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">No go </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>자극에</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Go </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>한</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>경우</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> (10 - </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>억제점수</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>)</t>
         </r>
       </text>
     </comment>
@@ -656,7 +754,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">No go </t>
+          <t xml:space="preserve">Go </t>
         </r>
         <r>
           <rPr>
@@ -677,7 +775,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve"> Go </t>
+          <t xml:space="preserve"> </t>
         </r>
         <r>
           <rPr>
@@ -688,7 +786,7 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>한</t>
+          <t>반응하지</t>
         </r>
         <r>
           <rPr>
@@ -709,6 +807,27 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
+          <t>않은</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
           <t>경우</t>
         </r>
         <r>
@@ -719,7 +838,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve"> (10 - </t>
+          <t xml:space="preserve"> (50 - </t>
         </r>
         <r>
           <rPr>
@@ -730,7 +849,7 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>억제점수</t>
+          <t>반응점수</t>
         </r>
         <r>
           <rPr>
@@ -748,137 +867,18 @@
       <text>
         <r>
           <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Go </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>자극에</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>반응하지</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>않은</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>경우</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> (50 - </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>반응점수</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>)</t>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="맑은 고딕"/>
+            <family val="2"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Go 자극에 - Go 반응</t>
         </r>
       </text>
     </comment>
     <comment ref="H1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="맑은 고딕"/>
-            <family val="2"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Go 자극에 - Go 반응</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -903,7 +903,7 @@
     <author>GC</author>
   </authors>
   <commentList>
-    <comment ref="N1" authorId="0" shapeId="0">
+    <comment ref="M1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -919,7 +919,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0" shapeId="0">
+    <comment ref="O1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -945,6 +945,21 @@
     <author>GC</author>
   </authors>
   <commentList>
+    <comment ref="C1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>정확한 개별 반응의 총합
+(범위 0~88)</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="D1" authorId="0" shapeId="0">
       <text>
         <r>
@@ -955,27 +970,12 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>정확한 개별 반응의 총합
-(범위 0~88)</t>
+          <t>정확하게 반응한 시행 수 
+(범위: 0~16)</t>
         </r>
       </text>
     </comment>
     <comment ref="E1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>정확하게 반응한 시행 수 
-(범위: 0~16)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1421,7 +1421,7 @@
     <author>GC</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1437,7 +1437,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1453,7 +1453,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1527,7 +1527,7 @@
     <author>GC</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1540,6 +1540,22 @@
           </rPr>
           <t>No-Go 자극이 제시되었을 때 키보드를 누르지 않은 경우, 
 점수범위 0~10점</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="맑은 고딕"/>
+            <family val="2"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Go에 Go
+총 50점</t>
         </r>
       </text>
     </comment>
@@ -1547,15 +1563,97 @@
       <text>
         <r>
           <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="맑은 고딕"/>
-            <family val="2"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Go에 Go
-총 50점</t>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">No go </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>자극에</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Go </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>한</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>경우</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> (10 - </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>억제점수</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>)</t>
         </r>
       </text>
     </comment>
@@ -1569,7 +1667,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">No go </t>
+          <t xml:space="preserve">Go </t>
         </r>
         <r>
           <rPr>
@@ -1590,7 +1688,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve"> Go </t>
+          <t xml:space="preserve"> </t>
         </r>
         <r>
           <rPr>
@@ -1601,7 +1699,7 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>한</t>
+          <t>반응하지</t>
         </r>
         <r>
           <rPr>
@@ -1622,6 +1720,27 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
+          <t>않은</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
           <t>경우</t>
         </r>
         <r>
@@ -1632,7 +1751,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve"> (10 - </t>
+          <t xml:space="preserve"> (50 - </t>
         </r>
         <r>
           <rPr>
@@ -1643,7 +1762,7 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>억제점수</t>
+          <t>반응점수</t>
         </r>
         <r>
           <rPr>
@@ -1661,137 +1780,18 @@
       <text>
         <r>
           <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Go </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>자극에</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>반응하지</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>않은</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>경우</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> (50 - </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>반응점수</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>)</t>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="맑은 고딕"/>
+            <family val="2"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Go 자극에 - Go 반응</t>
         </r>
       </text>
     </comment>
     <comment ref="H1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="맑은 고딕"/>
-            <family val="2"/>
-            <charset val="129"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Go 자극에 - Go 반응</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1816,7 +1816,7 @@
     <author>GC</author>
   </authors>
   <commentList>
-    <comment ref="N1" authorId="0" shapeId="0">
+    <comment ref="M1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1832,7 +1832,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0" shapeId="0">
+    <comment ref="O1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1853,7 +1853,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="114">
   <si>
     <t>ID</t>
   </si>
@@ -2215,18 +2215,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Family name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>First name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>First name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Stimulus</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2235,7 +2223,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>stimulus</t>
+    <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2662,10 +2654,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2677,41 +2669,37 @@
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="6" t="s">
         <v>81</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>82</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="F1" s="7" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
+      <c r="C2" s="7">
+        <f>SUM(E5:E20)</f>
+        <v>0</v>
+      </c>
       <c r="D2" s="7">
         <f>SUM(E5:E20)</f>
         <v>0</v>
       </c>
-      <c r="E2" s="7">
-        <f>SUM(E5:E20)</f>
-        <v>0</v>
-      </c>
-      <c r="F2" s="7"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="E2" s="7"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="6" t="s">
         <v>85</v>
       </c>
@@ -2728,7 +2716,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" s="8" t="s">
         <v>90</v>
       </c>
@@ -2737,7 +2725,7 @@
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" s="8" t="s">
         <v>91</v>
       </c>
@@ -2746,7 +2734,7 @@
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" s="8" t="s">
         <v>92</v>
       </c>
@@ -2755,7 +2743,7 @@
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" s="8" t="s">
         <v>93</v>
       </c>
@@ -2764,7 +2752,7 @@
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" s="8" t="s">
         <v>94</v>
       </c>
@@ -2773,7 +2761,7 @@
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" s="8" t="s">
         <v>95</v>
       </c>
@@ -2782,7 +2770,7 @@
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" s="8" t="s">
         <v>96</v>
       </c>
@@ -2791,7 +2779,7 @@
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" s="8" t="s">
         <v>97</v>
       </c>
@@ -2800,7 +2788,7 @@
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13" s="8" t="s">
         <v>98</v>
       </c>
@@ -2809,7 +2797,7 @@
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14" s="8" t="s">
         <v>99</v>
       </c>
@@ -2818,7 +2806,7 @@
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15" s="8" t="s">
         <v>100</v>
       </c>
@@ -2827,7 +2815,7 @@
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16" s="8" t="s">
         <v>101</v>
       </c>
@@ -2886,7 +2874,7 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2904,36 +2892,32 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>112</v>
+        <v>113</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>1</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="10"/>
+      <c r="F1" s="10"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="7">
+      <c r="C2" s="7">
         <f>SUM(G5:G20)</f>
         <v>0</v>
       </c>
-      <c r="E2" s="7">
+      <c r="D2" s="7">
         <f>SUM(F5:F20)</f>
         <v>0</v>
       </c>
-      <c r="F2" s="7"/>
-      <c r="G2" s="10"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="10"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="6" t="s">
@@ -3147,10 +3131,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I64"/>
+  <dimension ref="A1:H64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -3162,53 +3146,49 @@
     <col min="5" max="5" width="14" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="D1" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>80</v>
       </c>
+      <c r="D1" s="6" t="s">
+        <v>26</v>
+      </c>
       <c r="E1" s="6" t="s">
-        <v>26</v>
+        <v>108</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>109</v>
+        <v>27</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="I1" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="8"/>
       <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
+      <c r="C2" s="6"/>
       <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
+      <c r="E2" s="6">
+        <f>10-C2</f>
+        <v>10</v>
+      </c>
       <c r="F2" s="6">
-        <f>10-D2</f>
-        <v>10</v>
-      </c>
-      <c r="G2" s="6">
-        <f>50-E2</f>
+        <f>50-D2</f>
         <v>50</v>
       </c>
+      <c r="G2" s="6"/>
       <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
@@ -3225,7 +3205,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" s="6">
         <v>1</v>
       </c>
@@ -3234,7 +3214,7 @@
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" s="6">
         <v>2</v>
       </c>
@@ -3243,7 +3223,7 @@
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="6">
         <v>3</v>
       </c>
@@ -3252,7 +3232,7 @@
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" s="6">
         <v>4</v>
       </c>
@@ -3261,7 +3241,7 @@
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9" s="6">
         <v>5</v>
       </c>
@@ -3270,7 +3250,7 @@
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10" s="6">
         <v>6</v>
       </c>
@@ -3279,7 +3259,7 @@
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11" s="6">
         <v>7</v>
       </c>
@@ -3288,7 +3268,7 @@
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12" s="6">
         <v>8</v>
       </c>
@@ -3297,7 +3277,7 @@
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13" s="6">
         <v>9</v>
       </c>
@@ -3306,7 +3286,7 @@
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14" s="6">
         <v>10</v>
       </c>
@@ -3315,7 +3295,7 @@
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" s="6">
         <v>11</v>
       </c>
@@ -3324,7 +3304,7 @@
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A16" s="6">
         <v>12</v>
       </c>
@@ -3778,10 +3758,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:P40"/>
+  <dimension ref="A1:O40"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -3801,94 +3781,90 @@
     <col min="13" max="14" width="12.08203125" style="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>111</v>
+        <v>113</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="P1" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="2">
+      <c r="D2" s="2">
         <f>SUM(E5:E16)</f>
         <v>0</v>
       </c>
+      <c r="E2" s="2"/>
       <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2">
+      <c r="G2" s="2">
         <f>SUM(E17:E28)</f>
         <v>0</v>
       </c>
+      <c r="H2" s="2"/>
       <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2">
+      <c r="J2" s="2">
         <f>SUM(E29:E40)</f>
         <v>0</v>
       </c>
+      <c r="K2" s="2"/>
       <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2">
+      <c r="M2" s="2">
         <f>SUM(E5:E40)</f>
         <v>0</v>
+      </c>
+      <c r="N2" s="2" t="str">
+        <f>IFERROR(AVERAGE(E2,H2,K2),"")</f>
+        <v/>
       </c>
       <c r="O2" s="2" t="str">
         <f>IFERROR(AVERAGE(F2,I2,L2),"")</f>
         <v/>
       </c>
-      <c r="P2" s="2" t="str">
-        <f>IFERROR(AVERAGE(G2,J2,M2),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.45">
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B4" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>41</v>
@@ -3901,7 +3877,7 @@
       </c>
       <c r="O4" s="9"/>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B5" s="6" t="s">
         <v>44</v>
       </c>
@@ -3911,7 +3887,7 @@
       <c r="F5" s="4"/>
       <c r="O5" s="9"/>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B6" s="6" t="s">
         <v>45</v>
       </c>
@@ -3921,7 +3897,7 @@
       <c r="F6" s="4"/>
       <c r="O6" s="9"/>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B7" s="6" t="s">
         <v>46</v>
       </c>
@@ -3931,7 +3907,7 @@
       <c r="F7" s="4"/>
       <c r="O7" s="9"/>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B8" s="6" t="s">
         <v>47</v>
       </c>
@@ -3941,7 +3917,7 @@
       <c r="F8" s="4"/>
       <c r="O8" s="9"/>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B9" s="6" t="s">
         <v>48</v>
       </c>
@@ -3951,7 +3927,7 @@
       <c r="F9" s="4"/>
       <c r="O9" s="9"/>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B10" s="6" t="s">
         <v>49</v>
       </c>
@@ -3961,7 +3937,7 @@
       <c r="F10" s="4"/>
       <c r="O10" s="9"/>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B11" s="6" t="s">
         <v>50</v>
       </c>
@@ -3971,7 +3947,7 @@
       <c r="F11" s="4"/>
       <c r="O11" s="9"/>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B12" s="6" t="s">
         <v>51</v>
       </c>
@@ -3981,7 +3957,7 @@
       <c r="F12" s="4"/>
       <c r="O12" s="9"/>
     </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B13" s="6" t="s">
         <v>52</v>
       </c>
@@ -3991,7 +3967,7 @@
       <c r="F13" s="4"/>
       <c r="O13" s="9"/>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B14" s="6" t="s">
         <v>53</v>
       </c>
@@ -4001,7 +3977,7 @@
       <c r="F14" s="4"/>
       <c r="O14" s="9"/>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B15" s="6" t="s">
         <v>54</v>
       </c>
@@ -4011,7 +3987,7 @@
       <c r="F15" s="4"/>
       <c r="O15" s="9"/>
     </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B16" s="6" t="s">
         <v>55</v>
       </c>
@@ -4274,10 +4250,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -4289,41 +4265,37 @@
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="6" t="s">
         <v>81</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>82</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="F1" s="7" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
+      <c r="C2" s="7">
+        <f>SUM(E5:E20)</f>
+        <v>0</v>
+      </c>
       <c r="D2" s="7">
         <f>SUM(E5:E20)</f>
         <v>0</v>
       </c>
-      <c r="E2" s="7">
-        <f>SUM(E5:E20)</f>
-        <v>0</v>
-      </c>
-      <c r="F2" s="7"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="E2" s="7"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="6" t="s">
         <v>85</v>
       </c>
@@ -4340,7 +4312,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" s="8" t="s">
         <v>90</v>
       </c>
@@ -4349,7 +4321,7 @@
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" s="8" t="s">
         <v>91</v>
       </c>
@@ -4358,7 +4330,7 @@
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" s="8" t="s">
         <v>92</v>
       </c>
@@ -4367,7 +4339,7 @@
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" s="8" t="s">
         <v>93</v>
       </c>
@@ -4376,7 +4348,7 @@
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" s="8" t="s">
         <v>94</v>
       </c>
@@ -4385,7 +4357,7 @@
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" s="8" t="s">
         <v>95</v>
       </c>
@@ -4394,7 +4366,7 @@
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" s="8" t="s">
         <v>96</v>
       </c>
@@ -4403,7 +4375,7 @@
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" s="8" t="s">
         <v>97</v>
       </c>
@@ -4412,7 +4384,7 @@
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13" s="8" t="s">
         <v>98</v>
       </c>
@@ -4421,7 +4393,7 @@
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14" s="8" t="s">
         <v>99</v>
       </c>
@@ -4430,7 +4402,7 @@
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15" s="8" t="s">
         <v>100</v>
       </c>
@@ -4439,7 +4411,7 @@
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16" s="8" t="s">
         <v>101</v>
       </c>
@@ -4498,7 +4470,7 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="G8:H17"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -4516,36 +4488,32 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>111</v>
+        <v>113</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>1</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="10"/>
+      <c r="F1" s="10"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="7">
+      <c r="C2" s="7">
         <f>SUM(G5:G20)</f>
         <v>0</v>
       </c>
-      <c r="E2" s="7">
+      <c r="D2" s="7">
         <f>SUM(F5:F20)</f>
         <v>0</v>
       </c>
-      <c r="F2" s="7"/>
-      <c r="G2" s="10"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="10"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="6" t="s">
@@ -4759,10 +4727,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I64"/>
+  <dimension ref="A1:H64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -4775,58 +4743,54 @@
     <col min="6" max="16384" width="8.58203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="D1" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>80</v>
       </c>
+      <c r="D1" s="6" t="s">
+        <v>26</v>
+      </c>
       <c r="E1" s="6" t="s">
-        <v>26</v>
+        <v>108</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>109</v>
+        <v>27</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="I1" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="8"/>
       <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
+      <c r="C2" s="6"/>
       <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
+      <c r="E2" s="6">
+        <f>10-C2</f>
+        <v>10</v>
+      </c>
       <c r="F2" s="6">
-        <f>10-D2</f>
-        <v>10</v>
-      </c>
-      <c r="G2" s="6">
-        <f>50-E2</f>
+        <f>50-D2</f>
         <v>50</v>
       </c>
+      <c r="G2" s="6"/>
       <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>23</v>
@@ -4838,7 +4802,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" s="6">
         <v>1</v>
       </c>
@@ -4847,7 +4811,7 @@
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" s="6">
         <v>2</v>
       </c>
@@ -4856,7 +4820,7 @@
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="6">
         <v>3</v>
       </c>
@@ -4865,7 +4829,7 @@
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" s="6">
         <v>4</v>
       </c>
@@ -4874,7 +4838,7 @@
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9" s="6">
         <v>5</v>
       </c>
@@ -4883,7 +4847,7 @@
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10" s="6">
         <v>6</v>
       </c>
@@ -4892,7 +4856,7 @@
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11" s="6">
         <v>7</v>
       </c>
@@ -4901,7 +4865,7 @@
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12" s="6">
         <v>8</v>
       </c>
@@ -4910,7 +4874,7 @@
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13" s="6">
         <v>9</v>
       </c>
@@ -4919,7 +4883,7 @@
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14" s="6">
         <v>10</v>
       </c>
@@ -4928,7 +4892,7 @@
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" s="6">
         <v>11</v>
       </c>
@@ -4937,7 +4901,7 @@
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A16" s="6">
         <v>12</v>
       </c>
@@ -5391,17 +5355,17 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:P40"/>
+  <dimension ref="A1:O40"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="4.25" style="9" customWidth="1"/>
     <col min="2" max="2" width="6.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.08203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.58203125" style="9" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.33203125" style="9" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.75" style="9" bestFit="1" customWidth="1"/>
@@ -5412,97 +5376,93 @@
     <col min="11" max="11" width="13.58203125" style="9" customWidth="1"/>
     <col min="12" max="12" width="4.75" style="9" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="12.08203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.58203125" style="5"/>
+    <col min="15" max="16384" width="8.6640625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="P1" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="2">
+      <c r="D2" s="2">
         <f>SUM(E5:E16)</f>
         <v>0</v>
       </c>
+      <c r="E2" s="2"/>
       <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2">
+      <c r="G2" s="2">
         <f>SUM(E17:E28)</f>
         <v>0</v>
       </c>
+      <c r="H2" s="2"/>
       <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2">
+      <c r="J2" s="2">
         <f>SUM(E29:E40)</f>
         <v>0</v>
       </c>
+      <c r="K2" s="2"/>
       <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2">
+      <c r="M2" s="2">
         <f>SUM(E5:E40)</f>
         <v>0</v>
+      </c>
+      <c r="N2" s="2" t="str">
+        <f>IFERROR(AVERAGE(E2,H2,K2),"")</f>
+        <v/>
       </c>
       <c r="O2" s="2" t="str">
         <f>IFERROR(AVERAGE(F2,I2,L2),"")</f>
         <v/>
       </c>
-      <c r="P2" s="2" t="str">
-        <f>IFERROR(AVERAGE(G2,J2,M2),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.45">
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B4" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>41</v>
@@ -5515,7 +5475,7 @@
       </c>
       <c r="O4" s="9"/>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B5" s="6" t="s">
         <v>44</v>
       </c>
@@ -5525,7 +5485,7 @@
       <c r="F5" s="4"/>
       <c r="O5" s="9"/>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B6" s="6" t="s">
         <v>45</v>
       </c>
@@ -5535,7 +5495,7 @@
       <c r="F6" s="4"/>
       <c r="O6" s="9"/>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B7" s="6" t="s">
         <v>46</v>
       </c>
@@ -5545,7 +5505,7 @@
       <c r="F7" s="4"/>
       <c r="O7" s="9"/>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B8" s="6" t="s">
         <v>47</v>
       </c>
@@ -5555,7 +5515,7 @@
       <c r="F8" s="4"/>
       <c r="O8" s="9"/>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B9" s="6" t="s">
         <v>48</v>
       </c>
@@ -5565,7 +5525,7 @@
       <c r="F9" s="4"/>
       <c r="O9" s="9"/>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B10" s="6" t="s">
         <v>49</v>
       </c>
@@ -5575,7 +5535,7 @@
       <c r="F10" s="4"/>
       <c r="O10" s="9"/>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B11" s="6" t="s">
         <v>50</v>
       </c>
@@ -5585,7 +5545,7 @@
       <c r="F11" s="4"/>
       <c r="O11" s="9"/>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B12" s="6" t="s">
         <v>51</v>
       </c>
@@ -5595,7 +5555,7 @@
       <c r="F12" s="4"/>
       <c r="O12" s="9"/>
     </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B13" s="6" t="s">
         <v>52</v>
       </c>
@@ -5605,7 +5565,7 @@
       <c r="F13" s="4"/>
       <c r="O13" s="9"/>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B14" s="6" t="s">
         <v>53</v>
       </c>
@@ -5615,7 +5575,7 @@
       <c r="F14" s="4"/>
       <c r="O14" s="9"/>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B15" s="6" t="s">
         <v>54</v>
       </c>
@@ -5625,7 +5585,7 @@
       <c r="F15" s="4"/>
       <c r="O15" s="9"/>
     </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B16" s="6" t="s">
         <v>55</v>
       </c>

--- a/template/메인AB.xlsx
+++ b/template/메인AB.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25610" windowHeight="12170" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25610" windowHeight="12170" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Digit Span (A)" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="Digit Span (B)" sheetId="6" r:id="rId5"/>
     <sheet name="Corsi (B)" sheetId="7" r:id="rId6"/>
     <sheet name="Go, No-Go (B)" sheetId="8" r:id="rId7"/>
-    <sheet name="DCCS (B)" sheetId="10" r:id="rId8"/>
+    <sheet name="DCCS (B)" sheetId="11" r:id="rId8"/>
     <sheet name="total" sheetId="5" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -3760,25 +3760,26 @@
   </sheetPr>
   <dimension ref="A1:O40"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F31" sqref="F17:L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="4.25" style="9" customWidth="1"/>
     <col min="2" max="2" width="6.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.08203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.58203125" style="9" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.4140625" style="9" customWidth="1"/>
     <col min="7" max="7" width="13.58203125" style="9" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15" style="9" customWidth="1"/>
     <col min="10" max="10" width="13.58203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.58203125" style="9" customWidth="1"/>
-    <col min="12" max="12" width="4.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.25" style="9" customWidth="1"/>
+    <col min="12" max="12" width="15.25" style="9" customWidth="1"/>
     <col min="13" max="14" width="12.08203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:15" x14ac:dyDescent="0.45">
@@ -5357,26 +5358,27 @@
   </sheetPr>
   <dimension ref="A1:O40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="4.25" style="9" customWidth="1"/>
     <col min="2" max="2" width="6.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.08203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.58203125" style="9" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.4140625" style="9" customWidth="1"/>
     <col min="7" max="7" width="13.58203125" style="9" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15" style="9" customWidth="1"/>
     <col min="10" max="10" width="13.58203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.58203125" style="9" customWidth="1"/>
-    <col min="12" max="12" width="4.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.25" style="9" customWidth="1"/>
+    <col min="12" max="12" width="15.25" style="9" customWidth="1"/>
     <col min="13" max="14" width="12.08203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.6640625" style="5"/>
+    <col min="15" max="15" width="13.33203125" style="5" customWidth="1"/>
+    <col min="16" max="16384" width="8.6640625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:15" x14ac:dyDescent="0.45">
